--- a/teaching/traditional_assets/database/data/china/china_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/china/china_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ51"/>
+  <dimension ref="A1:AQ55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.147</v>
+        <v>-0.0008100000000000001</v>
       </c>
       <c r="E2">
-        <v>0.07339999999999999</v>
+        <v>-0.06805</v>
       </c>
       <c r="F2">
-        <v>0.08405</v>
+        <v>0.1825</v>
       </c>
       <c r="G2">
-        <v>0.0121223554427672</v>
+        <v>0.008614155950062641</v>
       </c>
       <c r="H2">
-        <v>0.009802596898075541</v>
+        <v>0.006149174099046375</v>
       </c>
       <c r="I2">
-        <v>0.0222872160145152</v>
+        <v>0.009954827087661263</v>
       </c>
       <c r="J2">
-        <v>0.01795949663526228</v>
+        <v>0.007888902251647352</v>
       </c>
       <c r="K2">
-        <v>14246.76</v>
+        <v>22898.95</v>
       </c>
       <c r="L2">
-        <v>0.2529528081572663</v>
+        <v>0.2945376832584308</v>
       </c>
       <c r="M2">
-        <v>15014.3808</v>
+        <v>19248.413</v>
       </c>
       <c r="N2">
-        <v>0.03831432670415833</v>
+        <v>0.03561638636880895</v>
       </c>
       <c r="O2">
-        <v>1.053880377012036</v>
+        <v>0.8405805943067258</v>
       </c>
       <c r="P2">
-        <v>14946.0108</v>
+        <v>16463.043</v>
       </c>
       <c r="Q2">
-        <v>0.03813985727037633</v>
+        <v>0.03046246463510086</v>
       </c>
       <c r="R2">
-        <v>1.049081391137353</v>
+        <v>0.718943139314248</v>
       </c>
       <c r="S2">
-        <v>68.37000000000008</v>
+        <v>2785.37</v>
       </c>
       <c r="T2">
-        <v>0.004553634339685861</v>
+        <v>0.1447064752818843</v>
       </c>
       <c r="U2">
-        <v>68848.708</v>
+        <v>85280.39</v>
       </c>
       <c r="V2">
-        <v>0.1756910209358217</v>
+        <v>0.157798947888468</v>
       </c>
       <c r="W2">
-        <v>0.05693966298242436</v>
+        <v>0.08621384255902023</v>
       </c>
       <c r="X2">
-        <v>0.06424083886975729</v>
+        <v>0.04670322201678859</v>
       </c>
       <c r="Y2">
-        <v>-0.007301175887332929</v>
+        <v>0.03951062054223164</v>
       </c>
       <c r="Z2">
-        <v>0.09419205827902366</v>
+        <v>0.1201823310599416</v>
       </c>
       <c r="AA2">
-        <v>0.0006673184187154583</v>
+        <v>0.0003509857468258204</v>
       </c>
       <c r="AB2">
-        <v>0.0471242697466325</v>
+        <v>0.03449153016028579</v>
       </c>
       <c r="AC2">
-        <v>-0.04650078947329802</v>
+        <v>-0.0338922308693638</v>
       </c>
       <c r="AD2">
-        <v>482059.365</v>
+        <v>641144</v>
       </c>
       <c r="AE2">
-        <v>3034.028271007588</v>
+        <v>1521.839930694701</v>
       </c>
       <c r="AF2">
-        <v>485093.3932710076</v>
+        <v>642665.8399306947</v>
       </c>
       <c r="AG2">
-        <v>416244.6852710076</v>
+        <v>557385.4499306947</v>
       </c>
       <c r="AH2">
-        <v>0.5531488486606363</v>
+        <v>0.5432036998308124</v>
       </c>
       <c r="AI2">
-        <v>0.6638141442585171</v>
+        <v>0.6883003308733893</v>
       </c>
       <c r="AJ2">
-        <v>0.5150787822053314</v>
+        <v>0.5077191215809826</v>
       </c>
       <c r="AK2">
-        <v>0.6288461335883178</v>
+        <v>0.6569692805523897</v>
       </c>
       <c r="AL2">
-        <v>621.2</v>
+        <v>196.9</v>
       </c>
       <c r="AM2">
-        <v>24.08000000000004</v>
+        <v>-1177.955</v>
       </c>
       <c r="AN2">
-        <v>258.0117584279706</v>
+        <v>592.6038210202327</v>
       </c>
       <c r="AO2">
-        <v>1.217643271088216</v>
+        <v>3.034027425088877</v>
       </c>
       <c r="AP2">
-        <v>222.7858869271627</v>
+        <v>515.1865219202102</v>
       </c>
       <c r="AQ2">
-        <v>31.41196013289031</v>
+        <v>-0.5071501033570892</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ChinaLin Securities Co., Ltd. (SZSE:002945)</t>
+          <t>China Finance Online Co. Limited (NasdaqGS:JRJC)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,104 +727,113 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.159</v>
+      </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2005128205128205</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.03198226467206396</v>
+        <v>0.04141666696896364</v>
       </c>
       <c r="J3">
-        <v>0.02835588853263478</v>
+        <v>0.04141666696896364</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>-8.34</v>
       </c>
       <c r="L3">
-        <v>0.4107542942494399</v>
+        <v>-0.2138461538461539</v>
       </c>
       <c r="M3">
-        <v>27.2</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.004695078797921737</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.4945454545454545</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>27.2</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.004695078797921737</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.4945454545454545</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>65.3</v>
+        <v>7.09</v>
       </c>
       <c r="V3">
-        <v>0.01127164137883417</v>
+        <v>0.3635897435897436</v>
+      </c>
+      <c r="W3">
+        <v>-0.3010830324909747</v>
       </c>
       <c r="X3">
-        <v>0.04645221822601977</v>
+        <v>0.03501193193694924</v>
+      </c>
+      <c r="Y3">
+        <v>-0.336094964427924</v>
       </c>
       <c r="Z3">
-        <v>7.485517925815808</v>
+        <v>1.606541511372553</v>
       </c>
       <c r="AA3">
-        <v>0.2122585119134725</v>
+        <v>0.06653759474833255</v>
       </c>
       <c r="AB3">
-        <v>0.04546588654002293</v>
+        <v>0.03376540475129045</v>
       </c>
       <c r="AC3">
-        <v>0.1667926253734496</v>
+        <v>0.03277218999704211</v>
       </c>
       <c r="AD3">
-        <v>437.3</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>17.88787380205317</v>
+        <v>3.673749941052091</v>
       </c>
       <c r="AF3">
-        <v>455.1878738020532</v>
+        <v>3.673749941052091</v>
       </c>
       <c r="AG3">
-        <v>389.8878738020532</v>
+        <v>-3.416250058947909</v>
       </c>
       <c r="AH3">
-        <v>0.0728476845911013</v>
+        <v>0.1585306629439406</v>
       </c>
       <c r="AI3">
-        <v>0.3847781400658877</v>
+        <v>0.2555874393333985</v>
       </c>
       <c r="AJ3">
-        <v>0.06305612602424619</v>
+        <v>-0.2124038281786692</v>
       </c>
       <c r="AK3">
-        <v>0.3488343060176242</v>
+        <v>-0.469023523129688</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-0.025</v>
       </c>
       <c r="AN3">
-        <v>55.63613231552163</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>49.6040551911009</v>
+        <v>-1.453723429339536</v>
+      </c>
+      <c r="AQ3">
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -844,46 +853,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.279</v>
+        <v>0.163</v>
       </c>
       <c r="E4">
-        <v>0.406</v>
+        <v>0.7809999999999999</v>
       </c>
       <c r="G4">
-        <v>0.2911879595588235</v>
+        <v>0.4827428819821777</v>
       </c>
       <c r="H4">
-        <v>0.2911879595588235</v>
+        <v>0.4843512279939143</v>
       </c>
       <c r="I4">
-        <v>0.450539981617647</v>
+        <v>0.5820473810041296</v>
       </c>
       <c r="J4">
-        <v>0.3308152081773801</v>
+        <v>0.5032225148818824</v>
       </c>
       <c r="K4">
-        <v>209.5</v>
+        <v>640.4</v>
       </c>
       <c r="L4">
-        <v>0.1203469669117647</v>
+        <v>0.6959356661595305</v>
       </c>
       <c r="M4">
-        <v>267.5</v>
+        <v>392.6</v>
       </c>
       <c r="N4">
-        <v>0.06996756643649299</v>
+        <v>0.06394761703098023</v>
       </c>
       <c r="O4">
-        <v>1.276849642004773</v>
+        <v>0.6130543410368521</v>
       </c>
       <c r="P4">
-        <v>267.5</v>
+        <v>392.6</v>
       </c>
       <c r="Q4">
-        <v>0.06996756643649299</v>
+        <v>0.06394761703098023</v>
       </c>
       <c r="R4">
-        <v>1.276849642004773</v>
+        <v>0.6130543410368521</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -892,73 +901,70 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2197.3</v>
+        <v>1468</v>
       </c>
       <c r="V4">
-        <v>0.5747279765641349</v>
+        <v>0.239111313809167</v>
       </c>
       <c r="W4">
-        <v>0.1111170043492097</v>
+        <v>0.2655278215440749</v>
       </c>
       <c r="X4">
-        <v>0.09230044192200383</v>
+        <v>0.06007529097780219</v>
       </c>
       <c r="Y4">
-        <v>0.01881656242720588</v>
+        <v>0.2054525305662728</v>
       </c>
       <c r="Z4">
-        <v>0.2021647233706508</v>
+        <v>0.09589112470431313</v>
       </c>
       <c r="AA4">
-        <v>0.06687916504798433</v>
+        <v>0.04825457292855665</v>
       </c>
       <c r="AB4">
-        <v>0.04808209861725052</v>
+        <v>0.03751124460456651</v>
       </c>
       <c r="AC4">
-        <v>0.01879706643073381</v>
+        <v>0.01074332832399014</v>
       </c>
       <c r="AD4">
-        <v>9381.799999999999</v>
+        <v>10263.5</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>9381.799999999999</v>
+        <v>10263.5</v>
       </c>
       <c r="AG4">
-        <v>7184.499999999999</v>
+        <v>8795.5</v>
       </c>
       <c r="AH4">
-        <v>0.7104733055660734</v>
+        <v>0.6257125264434947</v>
       </c>
       <c r="AI4">
-        <v>0.748191685341287</v>
+        <v>0.694192684378551</v>
       </c>
       <c r="AJ4">
-        <v>0.6526794879947673</v>
+        <v>0.5889225907103496</v>
       </c>
       <c r="AK4">
-        <v>0.6946915490233997</v>
+        <v>0.66048149705635</v>
       </c>
       <c r="AL4">
-        <v>503.1</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>503.1</v>
+        <v>-338.4</v>
       </c>
       <c r="AN4">
-        <v>11.89828788839569</v>
-      </c>
-      <c r="AO4">
-        <v>1.558934605446233</v>
+        <v>19.17694319880419</v>
       </c>
       <c r="AP4">
-        <v>9.111604311984781</v>
+        <v>16.43404334828102</v>
       </c>
       <c r="AQ4">
-        <v>1.558934605446233</v>
+        <v>-1.58274231678487</v>
       </c>
     </row>
     <row r="5">
@@ -969,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Holly Futures Co., Ltd. (SEHK:3678)</t>
+          <t>Shanghai Chinafortune Co., Ltd. (SHSE:600621)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -977,41 +983,47 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.286</v>
+      </c>
+      <c r="E5">
+        <v>0.215</v>
+      </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.01644108280254777</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01222133757961784</v>
       </c>
       <c r="I5">
-        <v>0.02605045697005678</v>
+        <v>0.1329617834394904</v>
       </c>
       <c r="J5">
-        <v>0.02056794249661999</v>
+        <v>0.1008862431802491</v>
       </c>
       <c r="K5">
-        <v>12.1</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="L5">
-        <v>0.2951219512195122</v>
+        <v>0.3825636942675159</v>
       </c>
       <c r="M5">
-        <v>10.6</v>
+        <v>28.7</v>
       </c>
       <c r="N5">
-        <v>0.07981927710843373</v>
+        <v>0.007756547120348099</v>
       </c>
       <c r="O5">
-        <v>0.8760330578512396</v>
+        <v>0.2986472424557752</v>
       </c>
       <c r="P5">
-        <v>10.6</v>
+        <v>28.7</v>
       </c>
       <c r="Q5">
-        <v>0.07981927710843373</v>
+        <v>0.007756547120348099</v>
       </c>
       <c r="R5">
-        <v>0.8760330578512396</v>
+        <v>0.2986472424557752</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1020,67 +1032,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>155.4</v>
+        <v>1073.2</v>
       </c>
       <c r="V5">
-        <v>1.170180722891566</v>
+        <v>0.2900462149671631</v>
       </c>
       <c r="W5">
-        <v>0.04646697388632873</v>
+        <v>0.1102190618190159</v>
       </c>
       <c r="X5">
-        <v>0.04649369519737159</v>
+        <v>0.03765004744676624</v>
       </c>
       <c r="Y5">
-        <v>-2.672131104286546e-05</v>
+        <v>0.0725690143722497</v>
       </c>
       <c r="Z5">
-        <v>0.3882441330944065</v>
+        <v>0.3227879005936625</v>
       </c>
       <c r="AA5">
-        <v>0.007985383004135833</v>
+        <v>0.03256485863493429</v>
       </c>
       <c r="AB5">
-        <v>0.04493032454399818</v>
+        <v>0.03415584158545012</v>
       </c>
       <c r="AC5">
-        <v>-0.03694494153986234</v>
+        <v>-0.001590982950515824</v>
       </c>
       <c r="AD5">
-        <v>5.86</v>
+        <v>1274.8</v>
       </c>
       <c r="AE5">
-        <v>4.859656321138361</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>10.71965632113836</v>
+        <v>1274.8</v>
       </c>
       <c r="AG5">
-        <v>-144.6803436788616</v>
+        <v>201.5999999999999</v>
       </c>
       <c r="AH5">
-        <v>0.07469120673723012</v>
+        <v>0.2562463567106877</v>
       </c>
       <c r="AI5">
-        <v>0.04067877315411662</v>
+        <v>0.552579107065453</v>
       </c>
       <c r="AJ5">
-        <v>12.17812780418864</v>
+        <v>0.05166978496552783</v>
       </c>
       <c r="AK5">
-        <v>-1.33815023652249</v>
+        <v>0.1633976333279299</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-90.09999999999999</v>
       </c>
       <c r="AN5">
-        <v>2.872549019607843</v>
+        <v>36.31908831908832</v>
+      </c>
+      <c r="AO5">
+        <v>0.6549019607843137</v>
       </c>
       <c r="AP5">
-        <v>-70.9217370974812</v>
+        <v>5.743589743589741</v>
+      </c>
+      <c r="AQ5">
+        <v>-0.3706992230854606</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1109,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>China Renaissance Holdings Limited (SEHK:1911)</t>
+          <t>UP Fintech Holding Limited (NasdaqGS:TIGR)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1099,116 +1117,107 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="F6">
-        <v>0.0255</v>
-      </c>
       <c r="G6">
-        <v>0.02050189393939394</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01280699918568634</v>
+        <v>0.01403912646546693</v>
       </c>
       <c r="J6">
-        <v>0.01280699918568634</v>
+        <v>0.009632400658250925</v>
       </c>
       <c r="K6">
-        <v>-68.8</v>
+        <v>7.41</v>
       </c>
       <c r="L6">
-        <v>-0.3257575757575757</v>
+        <v>0.07118155619596542</v>
       </c>
       <c r="M6">
-        <v>23.944</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.02263565891472868</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>-0.3480232558139535</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>0.944</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.0008924182265078465</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>-0.01372093023255814</v>
+        <v>-0</v>
       </c>
       <c r="S6">
-        <v>23</v>
-      </c>
-      <c r="T6">
-        <v>0.9605746742398931</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>219.9</v>
+        <v>61.3</v>
       </c>
       <c r="V6">
-        <v>0.207884288145207</v>
+        <v>0.05477615941381467</v>
       </c>
       <c r="W6">
-        <v>0.5032918800292612</v>
+        <v>0.03545454545454545</v>
       </c>
       <c r="X6">
-        <v>0.04561035269909577</v>
+        <v>0.03191990721528728</v>
       </c>
       <c r="Y6">
-        <v>0.4576815273301654</v>
+        <v>0.003534638239258175</v>
       </c>
       <c r="Z6">
-        <v>0.4366561157933968</v>
+        <v>0.5722212641990897</v>
       </c>
       <c r="AA6">
-        <v>0.005592254519390992</v>
+        <v>0.005511864481936487</v>
       </c>
       <c r="AB6">
-        <v>0.04508522996132194</v>
+        <v>0.03187744776072445</v>
       </c>
       <c r="AC6">
-        <v>-0.03949297544193095</v>
+        <v>-0.02636558327878796</v>
       </c>
       <c r="AD6">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>17.47580885991523</v>
+        <v>6.042634674724461</v>
       </c>
       <c r="AF6">
-        <v>36.97580885991523</v>
+        <v>6.042634674724461</v>
       </c>
       <c r="AG6">
-        <v>-182.9241911400848</v>
+        <v>-55.25736532527554</v>
       </c>
       <c r="AH6">
-        <v>0.03377477704628982</v>
+        <v>0.005370549909408925</v>
       </c>
       <c r="AI6">
-        <v>0.03746754001664242</v>
+        <v>0.02539534238151538</v>
       </c>
       <c r="AJ6">
-        <v>-0.209085894577952</v>
+        <v>-0.05194129613180127</v>
       </c>
       <c r="AK6">
-        <v>-0.2385006007060323</v>
+        <v>-0.3128200925389743</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>-16.7</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>3.145161290322581</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>-29.50390179678786</v>
-      </c>
-      <c r="AQ6">
-        <v>-0</v>
+        <v>-20.69564244392342</v>
       </c>
     </row>
     <row r="7">
@@ -1219,7 +1228,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Polaris Bay Group Co.,Ltd. (SHSE:600155)</t>
+          <t>Ruida Futures Co., Ltd. (SZSE:002961)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1227,122 +1236,110 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D7">
-        <v>0.483</v>
-      </c>
-      <c r="E7">
-        <v>-0.19</v>
-      </c>
       <c r="G7">
-        <v>0.1652516676773802</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.1652516676773802</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1100667070952092</v>
+        <v>0.004325845426415584</v>
       </c>
       <c r="J7">
-        <v>0.07278244728810994</v>
+        <v>0.003146919033969609</v>
       </c>
       <c r="K7">
-        <v>31.6</v>
+        <v>23.6</v>
       </c>
       <c r="L7">
-        <v>0.09581564584596726</v>
+        <v>0.1597833446174678</v>
       </c>
       <c r="M7">
-        <v>64.2</v>
+        <v>16.9</v>
       </c>
       <c r="N7">
-        <v>0.01831616786967562</v>
+        <v>0.01033070481080751</v>
       </c>
       <c r="O7">
-        <v>2.031645569620253</v>
+        <v>0.7161016949152541</v>
       </c>
       <c r="P7">
-        <v>42.5</v>
+        <v>16.9</v>
       </c>
       <c r="Q7">
-        <v>0.01212518901029928</v>
+        <v>0.01033070481080751</v>
       </c>
       <c r="R7">
-        <v>1.344936708860759</v>
+        <v>0.7161016949152541</v>
       </c>
       <c r="S7">
-        <v>21.7</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.3380062305295951</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>872.4</v>
+        <v>112.7</v>
       </c>
       <c r="V7">
-        <v>0.2488944680608257</v>
+        <v>0.06889174154899444</v>
       </c>
       <c r="W7">
-        <v>0.0144391135480923</v>
+        <v>0.100382815823054</v>
       </c>
       <c r="X7">
-        <v>0.06074390491570758</v>
+        <v>0.03378805856347966</v>
       </c>
       <c r="Y7">
-        <v>-0.04630479136761528</v>
+        <v>0.06659475725957437</v>
       </c>
       <c r="Z7">
-        <v>0.09155516073510631</v>
+        <v>0.7134046944972395</v>
       </c>
       <c r="AA7">
-        <v>0.006663608660157308</v>
+        <v>0.002245026812036637</v>
       </c>
       <c r="AB7">
-        <v>0.04692965496357613</v>
+        <v>0.03309816213203534</v>
       </c>
       <c r="AC7">
-        <v>-0.04026604630341882</v>
+        <v>-0.0308531353199987</v>
       </c>
       <c r="AD7">
-        <v>2870.7</v>
+        <v>187.6</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>2.105363152592092</v>
       </c>
       <c r="AF7">
-        <v>2870.7</v>
+        <v>189.7053631525921</v>
       </c>
       <c r="AG7">
-        <v>1998.3</v>
+        <v>77.0053631525921</v>
       </c>
       <c r="AH7">
-        <v>0.4502493804699018</v>
+        <v>0.1039136754205162</v>
       </c>
       <c r="AI7">
-        <v>0.5749909866602571</v>
+        <v>0.4081393593780742</v>
       </c>
       <c r="AJ7">
-        <v>0.3631028091725115</v>
+        <v>0.04495599395571054</v>
       </c>
       <c r="AK7">
-        <v>0.4850007281199941</v>
+        <v>0.2186997734516763</v>
       </c>
       <c r="AL7">
-        <v>118.1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>10.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>74.95300261096605</v>
-      </c>
-      <c r="AO7">
-        <v>0.3073666384419983</v>
+        <v>176.9811320754717</v>
       </c>
       <c r="AP7">
-        <v>52.17493472584856</v>
-      </c>
-      <c r="AQ7">
-        <v>3.424528301886794</v>
+        <v>72.64656901187934</v>
       </c>
     </row>
     <row r="8">
@@ -1353,7 +1350,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LUZHENG FUTURES Company Limited (SEHK:1461)</t>
+          <t>BOC International (China) CO., LTD (SHSE:601696)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1368,34 +1365,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01713939388566064</v>
+        <v>0.02079418868345096</v>
       </c>
       <c r="J8">
-        <v>0.01205286408733555</v>
+        <v>0.01643597212471908</v>
       </c>
       <c r="K8">
-        <v>9.42</v>
+        <v>128.3</v>
       </c>
       <c r="L8">
-        <v>0.1234600262123198</v>
+        <v>0.2671803415243649</v>
       </c>
       <c r="M8">
-        <v>9.77</v>
+        <v>80.8</v>
       </c>
       <c r="N8">
-        <v>0.09494655004859086</v>
+        <v>0.006860131429250649</v>
       </c>
       <c r="O8">
-        <v>1.037154989384289</v>
+        <v>0.6297739672642244</v>
       </c>
       <c r="P8">
-        <v>9.77</v>
+        <v>80.8</v>
       </c>
       <c r="Q8">
-        <v>0.09494655004859086</v>
+        <v>0.006860131429250649</v>
       </c>
       <c r="R8">
-        <v>1.037154989384289</v>
+        <v>0.6297739672642244</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1404,55 +1401,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>88.59999999999999</v>
+        <v>278.7</v>
       </c>
       <c r="V8">
-        <v>0.8610301263362486</v>
+        <v>0.02366235927391282</v>
       </c>
       <c r="W8">
-        <v>0.02861482381530984</v>
+        <v>0.07217190752095405</v>
       </c>
       <c r="X8">
-        <v>0.05346318049038809</v>
+        <v>0.0344926085023667</v>
       </c>
       <c r="Y8">
-        <v>-0.02484835667507825</v>
+        <v>0.03767929901858735</v>
       </c>
       <c r="Z8">
-        <v>0.2961251600938398</v>
+        <v>0.1357658029144595</v>
       </c>
       <c r="AA8">
-        <v>0.003569156307451532</v>
+        <v>0.00223144295219216</v>
       </c>
       <c r="AB8">
-        <v>0.04629269662628182</v>
+        <v>0.03349247327112778</v>
       </c>
       <c r="AC8">
-        <v>-0.04272354031883029</v>
+        <v>-0.03126103031893562</v>
       </c>
       <c r="AD8">
-        <v>40.1</v>
+        <v>1831.4</v>
       </c>
       <c r="AE8">
-        <v>5.361321232620464</v>
+        <v>25.57315297103425</v>
       </c>
       <c r="AF8">
-        <v>45.46132123262046</v>
+        <v>1856.973152971034</v>
       </c>
       <c r="AG8">
-        <v>-43.13867876737953</v>
+        <v>1578.273152971034</v>
       </c>
       <c r="AH8">
-        <v>0.3064230006508246</v>
+        <v>0.1361899208860732</v>
       </c>
       <c r="AI8">
-        <v>0.1237509737826576</v>
+        <v>0.4571941372517124</v>
       </c>
       <c r="AJ8">
-        <v>-0.7218494818657466</v>
+        <v>0.1181654119987476</v>
       </c>
       <c r="AK8">
-        <v>-0.1547513068765419</v>
+        <v>0.4172044286731207</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1461,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>16.84873949579832</v>
+        <v>121.2847682119205</v>
       </c>
       <c r="AP8">
-        <v>-18.12549528041157</v>
+        <v>104.5214008590089</v>
       </c>
     </row>
     <row r="9">
@@ -1475,7 +1472,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Shenwan Hongyuan Group Co., Ltd. (SZSE:000166)</t>
+          <t>Polaris Bay Group Co.,Ltd. (SHSE:600155)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1484,46 +1481,46 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.07679999999999999</v>
+        <v>0.506</v>
       </c>
       <c r="E9">
-        <v>0.0246</v>
+        <v>0.134</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.06828245164297367</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.06828245164297367</v>
       </c>
       <c r="I9">
-        <v>0.01143853507408046</v>
+        <v>0.06618503845257515</v>
       </c>
       <c r="J9">
-        <v>0.009419970061007438</v>
+        <v>0.04278628748449302</v>
       </c>
       <c r="K9">
-        <v>784.2</v>
+        <v>57.7</v>
       </c>
       <c r="L9">
-        <v>0.2634903568308582</v>
+        <v>0.1344674900955488</v>
       </c>
       <c r="M9">
-        <v>652.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="N9">
-        <v>0.03767018532092089</v>
+        <v>0.02322008348794063</v>
       </c>
       <c r="O9">
-        <v>0.8323131854118847</v>
+        <v>1.388214904679376</v>
       </c>
       <c r="P9">
-        <v>652.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.03767018532092089</v>
+        <v>0.02322008348794063</v>
       </c>
       <c r="R9">
-        <v>0.8323131854118847</v>
+        <v>1.388214904679376</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1532,67 +1529,73 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>3465.4</v>
+        <v>1125.5</v>
       </c>
       <c r="V9">
-        <v>0.2000034628636728</v>
+        <v>0.3262697124304267</v>
       </c>
       <c r="W9">
-        <v>0.07793059585801169</v>
+        <v>0.02732525099450654</v>
       </c>
       <c r="X9">
-        <v>0.07568716754940918</v>
+        <v>0.0509494087840363</v>
       </c>
       <c r="Y9">
-        <v>0.00224342830860251</v>
+        <v>-0.02362415778952976</v>
       </c>
       <c r="Z9">
-        <v>0.08581940290452145</v>
+        <v>0.1191745820141088</v>
       </c>
       <c r="AA9">
-        <v>0.0008084162060141268</v>
+        <v>0.00509903792689995</v>
       </c>
       <c r="AB9">
-        <v>0.04489182419402854</v>
+        <v>0.0366499737926437</v>
       </c>
       <c r="AC9">
-        <v>-0.04408340798801441</v>
+        <v>-0.03155093586574376</v>
       </c>
       <c r="AD9">
-        <v>27478.1</v>
+        <v>3903.7</v>
       </c>
       <c r="AE9">
-        <v>126.7831595626086</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>27604.88315956261</v>
+        <v>3903.7</v>
       </c>
       <c r="AG9">
-        <v>24139.48315956261</v>
+        <v>2778.2</v>
       </c>
       <c r="AH9">
-        <v>0.6143759293219467</v>
+        <v>0.5308772931880924</v>
       </c>
       <c r="AI9">
-        <v>0.7023056214352595</v>
+        <v>0.6379115940844839</v>
       </c>
       <c r="AJ9">
-        <v>0.5821486647727727</v>
+        <v>0.4460965348919362</v>
       </c>
       <c r="AK9">
-        <v>0.6735218481214129</v>
+        <v>0.5563075690828995</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>145.9</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>-49.29999999999998</v>
       </c>
       <c r="AN9">
-        <v>462.5942760942761</v>
+        <v>127.1563517915309</v>
+      </c>
+      <c r="AO9">
+        <v>0.1946538725154215</v>
       </c>
       <c r="AP9">
-        <v>406.3886053798419</v>
+        <v>90.49511400651465</v>
+      </c>
+      <c r="AQ9">
+        <v>-0.5760649087221097</v>
       </c>
     </row>
     <row r="10">
@@ -1603,7 +1606,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>China Merchants Securities Co., Ltd. (SHSE:600999)</t>
+          <t>Founder Securities Co., Ltd. (SHSE:601901)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1612,13 +1615,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.147</v>
+        <v>-0.0519</v>
       </c>
       <c r="E10">
-        <v>0.142</v>
-      </c>
-      <c r="F10">
-        <v>0.0781</v>
+        <v>-0.201</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1627,91 +1627,91 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01025454430603923</v>
+        <v>0.01883127626796386</v>
       </c>
       <c r="J10">
-        <v>0.008427702229025339</v>
+        <v>0.01442835437435651</v>
       </c>
       <c r="K10">
-        <v>864.1</v>
+        <v>208.4</v>
       </c>
       <c r="L10">
-        <v>0.3775670715721402</v>
+        <v>0.1917379703744595</v>
       </c>
       <c r="M10">
-        <v>997</v>
+        <v>259.57</v>
       </c>
       <c r="N10">
-        <v>0.06165319613384371</v>
+        <v>0.01985117545389192</v>
       </c>
       <c r="O10">
-        <v>1.153801643328318</v>
+        <v>1.245537428023032</v>
       </c>
       <c r="P10">
-        <v>997</v>
+        <v>258.4</v>
       </c>
       <c r="Q10">
-        <v>0.06165319613384371</v>
+        <v>0.01976169718105202</v>
       </c>
       <c r="R10">
-        <v>1.153801643328318</v>
+        <v>1.239923224568138</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1.170000000000016</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>0.004507454636514296</v>
       </c>
       <c r="U10">
-        <v>1411.5</v>
+        <v>1135</v>
       </c>
       <c r="V10">
-        <v>0.08728534237003048</v>
+        <v>0.08680157237033298</v>
       </c>
       <c r="W10">
-        <v>0.07434653175709394</v>
+        <v>0.03853550295857988</v>
       </c>
       <c r="X10">
-        <v>0.07916085643122592</v>
+        <v>0.03882522277367502</v>
       </c>
       <c r="Y10">
-        <v>-0.004814324674131981</v>
+        <v>-0.000289719815095138</v>
       </c>
       <c r="Z10">
-        <v>0.07387907743821626</v>
+        <v>0.09682884051433573</v>
       </c>
       <c r="AA10">
-        <v>0.0006226308656043907</v>
+        <v>0.001397080824598884</v>
       </c>
       <c r="AB10">
-        <v>0.04489003891064068</v>
+        <v>0.03303856760145438</v>
       </c>
       <c r="AC10">
-        <v>-0.04426740804503629</v>
+        <v>-0.0316414867768555</v>
       </c>
       <c r="AD10">
-        <v>28547.9</v>
+        <v>5325.8</v>
       </c>
       <c r="AE10">
-        <v>126.1572495059931</v>
+        <v>88.66142912175039</v>
       </c>
       <c r="AF10">
-        <v>28674.05724950599</v>
+        <v>5414.46142912175</v>
       </c>
       <c r="AG10">
-        <v>27262.55724950599</v>
+        <v>4279.46142912175</v>
       </c>
       <c r="AH10">
-        <v>0.6394014205362578</v>
+        <v>0.2928277379893663</v>
       </c>
       <c r="AI10">
-        <v>0.7105284870886566</v>
+        <v>0.4758727178722458</v>
       </c>
       <c r="AJ10">
-        <v>0.6276827459611652</v>
+        <v>0.2465800614181995</v>
       </c>
       <c r="AK10">
-        <v>0.7000369031937611</v>
+        <v>0.417795327917063</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1720,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>586.1991786447638</v>
+        <v>139.4188481675393</v>
       </c>
       <c r="AP10">
-        <v>559.8061036859547</v>
+        <v>112.0277861026636</v>
       </c>
     </row>
     <row r="11">
@@ -1734,7 +1734,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>First Capital Securities Co., Ltd. (SZSE:002797)</t>
+          <t>China Renaissance Holdings Limited (SEHK:1911)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1742,116 +1742,107 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D11">
-        <v>0.08439999999999999</v>
-      </c>
-      <c r="E11">
-        <v>-0.0149</v>
-      </c>
       <c r="G11">
-        <v>0.0012</v>
+        <v>0.01904042312051379</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01955220685343739</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0184927112000118</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>48.3</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="L11">
-        <v>0.1509375</v>
+        <v>0.2553834529656214</v>
       </c>
       <c r="M11">
-        <v>56.3</v>
+        <v>33.393</v>
       </c>
       <c r="N11">
-        <v>0.0135177315181637</v>
+        <v>0.03063015960374243</v>
       </c>
       <c r="O11">
-        <v>1.165631469979296</v>
+        <v>0.4939792899408285</v>
       </c>
       <c r="P11">
-        <v>56.3</v>
+        <v>11.193</v>
       </c>
       <c r="Q11">
-        <v>0.0135177315181637</v>
+        <v>0.01026692350027518</v>
       </c>
       <c r="R11">
-        <v>1.165631469979296</v>
+        <v>0.1655769230769231</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.6648099901176893</v>
       </c>
       <c r="U11">
-        <v>284</v>
+        <v>178.3</v>
       </c>
       <c r="V11">
-        <v>0.06818891209872986</v>
+        <v>0.1635479728490185</v>
       </c>
       <c r="W11">
-        <v>0.03751456310679611</v>
+        <v>0.09136369779699959</v>
       </c>
       <c r="X11">
-        <v>0.05584321189012843</v>
+        <v>0.03290582205371362</v>
       </c>
       <c r="Y11">
-        <v>-0.01832864878333232</v>
+        <v>0.05845787574328597</v>
       </c>
       <c r="Z11">
-        <v>0.09170377526948464</v>
+        <v>0.4906394810009267</v>
       </c>
       <c r="AA11">
-        <v>0.001695851432009364</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.04653469319256066</v>
+        <v>0.03207628715790223</v>
       </c>
       <c r="AC11">
-        <v>-0.0448388417605513</v>
+        <v>-0.03207628715790223</v>
       </c>
       <c r="AD11">
-        <v>2331.4</v>
+        <v>69.5</v>
       </c>
       <c r="AE11">
-        <v>22.21646903450018</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>2353.6164690345</v>
+        <v>69.5</v>
       </c>
       <c r="AG11">
-        <v>2069.6164690345</v>
+        <v>-108.8</v>
       </c>
       <c r="AH11">
-        <v>0.3610662763859074</v>
+        <v>0.05992929205829094</v>
       </c>
       <c r="AI11">
-        <v>0.6432726235256014</v>
+        <v>0.06562175431970542</v>
       </c>
       <c r="AJ11">
-        <v>0.3319610236517683</v>
+        <v>-0.1108620338292236</v>
       </c>
       <c r="AK11">
-        <v>0.6132530429503907</v>
+        <v>-0.1235240690281562</v>
       </c>
       <c r="AL11">
         <v>0</v>
       </c>
       <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>217.8878504672898</v>
-      </c>
-      <c r="AP11">
-        <v>193.4220999097664</v>
+        <v>-7.13</v>
+      </c>
+      <c r="AQ11">
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -1862,7 +1853,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ruida Futures Co., Ltd. (SZSE:002961)</t>
+          <t>LUZHENG FUTURES Company Limited (SEHK:1461)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1870,6 +1861,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D12">
+        <v>-0.08529999999999999</v>
+      </c>
+      <c r="E12">
+        <v>-0.186</v>
+      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -1883,28 +1880,28 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.8</v>
+        <v>5.11</v>
       </c>
       <c r="L12">
-        <v>0.1523118766999093</v>
+        <v>0.07320916905444126</v>
       </c>
       <c r="M12">
-        <v>2.15</v>
+        <v>7.8</v>
       </c>
       <c r="N12">
-        <v>0.0009168834491875985</v>
+        <v>0.1006451612903226</v>
       </c>
       <c r="O12">
-        <v>0.1279761904761905</v>
+        <v>1.526418786692759</v>
       </c>
       <c r="P12">
-        <v>2.15</v>
+        <v>7.8</v>
       </c>
       <c r="Q12">
-        <v>0.0009168834491875985</v>
+        <v>0.1006451612903226</v>
       </c>
       <c r="R12">
-        <v>0.1279761904761905</v>
+        <v>1.526418786692759</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1913,55 +1910,55 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>85.7</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="V12">
-        <v>0.03654740074203591</v>
+        <v>1.046451612903226</v>
       </c>
       <c r="W12">
-        <v>0.1069382558879695</v>
+        <v>0.01603388766865391</v>
       </c>
       <c r="X12">
-        <v>0.04539907904482725</v>
+        <v>0.03437950096609986</v>
       </c>
       <c r="Y12">
-        <v>0.06153917684314221</v>
+        <v>-0.01834561329744595</v>
       </c>
       <c r="Z12">
-        <v>0.9492254733218588</v>
+        <v>0.2583271650629163</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.04510631284524803</v>
+        <v>0.03237061979274844</v>
       </c>
       <c r="AC12">
-        <v>-0.04510631284524803</v>
+        <v>-0.03237061979274844</v>
       </c>
       <c r="AD12">
-        <v>56.3</v>
+        <v>11.7</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>56.3</v>
+        <v>11.7</v>
       </c>
       <c r="AG12">
-        <v>-29.40000000000001</v>
+        <v>-69.39999999999999</v>
       </c>
       <c r="AH12">
-        <v>0.02344661002831917</v>
+        <v>0.1311659192825112</v>
       </c>
       <c r="AI12">
-        <v>0.1932052161976665</v>
+        <v>0.03579076170082594</v>
       </c>
       <c r="AJ12">
-        <v>-0.01269704167566401</v>
+        <v>-8.567901234567891</v>
       </c>
       <c r="AK12">
-        <v>-0.1429265921244531</v>
+        <v>-0.2823433685923515</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -1978,7 +1975,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Western Securities Co.,Ltd. (SZSE:002673)</t>
+          <t>Holly Futures Co., Ltd. (SEHK:3678)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1987,10 +1984,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.207</v>
+        <v>0.228</v>
       </c>
       <c r="E13">
-        <v>-0.0272</v>
+        <v>-0.184</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1999,34 +1996,34 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01220621729206972</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0099567331385463</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>53</v>
+        <v>4.4</v>
       </c>
       <c r="L13">
-        <v>0.1073743922204214</v>
+        <v>0.03351104341203351</v>
       </c>
       <c r="M13">
-        <v>58.6</v>
+        <v>10.3</v>
       </c>
       <c r="N13">
-        <v>0.01188954491042263</v>
+        <v>0.1086497890295359</v>
       </c>
       <c r="O13">
-        <v>1.105660377358491</v>
+        <v>2.340909090909091</v>
       </c>
       <c r="P13">
-        <v>58.6</v>
+        <v>10.3</v>
       </c>
       <c r="Q13">
-        <v>0.01188954491042263</v>
+        <v>0.1086497890295359</v>
       </c>
       <c r="R13">
-        <v>1.105660377358491</v>
+        <v>2.340909090909091</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2035,67 +2032,61 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>246.4</v>
+        <v>385.8</v>
       </c>
       <c r="V13">
-        <v>0.049992898735975</v>
+        <v>4.069620253164557</v>
       </c>
       <c r="W13">
-        <v>0.02074688796680498</v>
+        <v>0.01740506329113924</v>
       </c>
       <c r="X13">
-        <v>0.05451299644845314</v>
+        <v>0.03471605120207798</v>
       </c>
       <c r="Y13">
-        <v>-0.03376610848164817</v>
+        <v>-0.01731098791093874</v>
       </c>
       <c r="Z13">
-        <v>0.08615113436389805</v>
+        <v>1.354306343476019</v>
       </c>
       <c r="AA13">
-        <v>0.0008577838544443787</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04640435644738953</v>
+        <v>0.03243168731321448</v>
       </c>
       <c r="AC13">
-        <v>-0.04554657259294515</v>
+        <v>-0.03243168731321448</v>
       </c>
       <c r="AD13">
-        <v>2389.2</v>
+        <v>16.2</v>
       </c>
       <c r="AE13">
-        <v>56.37505572317193</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>2445.575055723172</v>
+        <v>16.2</v>
       </c>
       <c r="AG13">
-        <v>2199.175055723172</v>
+        <v>-369.6</v>
       </c>
       <c r="AH13">
-        <v>0.3316359963851853</v>
+        <v>0.1459459459459459</v>
       </c>
       <c r="AI13">
-        <v>0.4964853303403899</v>
+        <v>0.06534893102057282</v>
       </c>
       <c r="AJ13">
-        <v>0.3085316505313028</v>
+        <v>1.344978165938865</v>
       </c>
       <c r="AK13">
-        <v>0.4699719576941031</v>
+        <v>2.680203045685279</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>138.1040462427746</v>
-      </c>
-      <c r="AP13">
-        <v>127.1199454175244</v>
       </c>
     </row>
     <row r="14">
@@ -2106,7 +2097,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Founder Securities Co., Ltd. (SHSE:601901)</t>
+          <t>Western Securities Co.,Ltd. (SZSE:002673)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2115,10 +2106,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.0989</v>
+        <v>-0.0245</v>
       </c>
       <c r="E14">
-        <v>-0.051</v>
+        <v>-0.124</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2127,91 +2118,91 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01997634588080989</v>
+        <v>0.007521495704377581</v>
       </c>
       <c r="J14">
-        <v>0.01872716261958278</v>
+        <v>0.005917274254196374</v>
       </c>
       <c r="K14">
-        <v>179.3</v>
+        <v>149.3</v>
       </c>
       <c r="L14">
-        <v>0.1848263065663334</v>
+        <v>0.2342695747685549</v>
       </c>
       <c r="M14">
-        <v>283.77</v>
+        <v>50.9</v>
       </c>
       <c r="N14">
-        <v>0.027721389146681</v>
+        <v>0.009358509992829432</v>
       </c>
       <c r="O14">
-        <v>1.582654768544339</v>
+        <v>0.3409243134628265</v>
       </c>
       <c r="P14">
-        <v>276.8</v>
+        <v>50.9</v>
       </c>
       <c r="Q14">
-        <v>0.02704049235578567</v>
+        <v>0.009358509992829432</v>
       </c>
       <c r="R14">
-        <v>1.543781372002231</v>
+        <v>0.3409243134628265</v>
       </c>
       <c r="S14">
-        <v>6.970000000000027</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0.02456214539944331</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1378.8</v>
+        <v>306</v>
       </c>
       <c r="V14">
-        <v>0.1346944756508572</v>
+        <v>0.05626137638125357</v>
       </c>
       <c r="W14">
-        <v>0.0324860036598844</v>
+        <v>0.06045758250658029</v>
       </c>
       <c r="X14">
-        <v>0.05974406437612606</v>
+        <v>0.04104606778756267</v>
       </c>
       <c r="Y14">
-        <v>-0.02725806071624166</v>
+        <v>0.01941151471901761</v>
       </c>
       <c r="Z14">
-        <v>0.06935723683718295</v>
+        <v>0.1362491971657581</v>
       </c>
       <c r="AA14">
-        <v>0.001298864253094842</v>
+        <v>0.0008062238665438661</v>
       </c>
       <c r="AB14">
-        <v>0.04685828995822747</v>
+        <v>0.03328705639768938</v>
       </c>
       <c r="AC14">
-        <v>-0.04555942570513263</v>
+        <v>-0.03248083253114551</v>
       </c>
       <c r="AD14">
-        <v>7739.9</v>
+        <v>2901</v>
       </c>
       <c r="AE14">
-        <v>113.6047343051316</v>
+        <v>66.03275393800084</v>
       </c>
       <c r="AF14">
-        <v>7853.504734305131</v>
+        <v>2967.032753938001</v>
       </c>
       <c r="AG14">
-        <v>6474.704734305131</v>
+        <v>2661.032753938001</v>
       </c>
       <c r="AH14">
-        <v>0.4341350292414281</v>
+        <v>0.3529688900435242</v>
       </c>
       <c r="AI14">
-        <v>0.5862616142822626</v>
+        <v>0.5217923504596576</v>
       </c>
       <c r="AJ14">
-        <v>0.3874469158416636</v>
+        <v>0.3285252896259254</v>
       </c>
       <c r="AK14">
-        <v>0.5387907384897666</v>
+        <v>0.4945943559765678</v>
       </c>
       <c r="AL14">
         <v>0</v>
@@ -2220,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="AN14">
-        <v>183.8456057007126</v>
+        <v>161.1666666666667</v>
       </c>
       <c r="AP14">
-        <v>153.7934616224497</v>
+        <v>147.8351529965556</v>
       </c>
     </row>
     <row r="15">
@@ -2234,7 +2225,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CSC Financial Co., Ltd. (SEHK:6066)</t>
+          <t>SDIC Capital Co.,Ltd (SHSE:600061)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2242,44 +2233,47 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="F15">
-        <v>0.0005600000000000001</v>
+      <c r="D15">
+        <v>-0.09949999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.0111</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3.953406283092128e-05</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01308072218270988</v>
+        <v>0.01451490974213468</v>
       </c>
       <c r="J15">
-        <v>0.01006442236665749</v>
+        <v>0.01087076110468472</v>
       </c>
       <c r="K15">
-        <v>660.6</v>
+        <v>598.4</v>
       </c>
       <c r="L15">
-        <v>0.3584373304395008</v>
+        <v>0.4224496999647017</v>
       </c>
       <c r="M15">
-        <v>431.4</v>
+        <v>466.6</v>
       </c>
       <c r="N15">
-        <v>0.01489316895841029</v>
+        <v>0.05210729680834431</v>
       </c>
       <c r="O15">
-        <v>0.6530426884650318</v>
+        <v>0.7797459893048129</v>
       </c>
       <c r="P15">
-        <v>431.4</v>
+        <v>466.6</v>
       </c>
       <c r="Q15">
-        <v>0.01489316895841029</v>
+        <v>0.05210729680834431</v>
       </c>
       <c r="R15">
-        <v>0.6530426884650318</v>
+        <v>0.7797459893048129</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2288,67 +2282,70 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>3060.5</v>
+        <v>9301.799999999999</v>
       </c>
       <c r="V15">
-        <v>0.1056572637858477</v>
+        <v>1.038773367877962</v>
       </c>
       <c r="W15">
-        <v>0.0935945934458282</v>
+        <v>0.1104792851340374</v>
       </c>
       <c r="X15">
-        <v>0.05672471911746541</v>
+        <v>0.05820632153222992</v>
       </c>
       <c r="Y15">
-        <v>0.03686987432836279</v>
+        <v>0.05227296360180746</v>
       </c>
       <c r="Z15">
-        <v>0.09582258679794825</v>
+        <v>0.1639866522057574</v>
       </c>
       <c r="AA15">
-        <v>0.0009643989858002489</v>
+        <v>0.001782659720485808</v>
       </c>
       <c r="AB15">
-        <v>0.04661492049443494</v>
+        <v>0.03434717720766563</v>
       </c>
       <c r="AC15">
-        <v>-0.04565052150863469</v>
+        <v>-0.03256451748717982</v>
       </c>
       <c r="AD15">
-        <v>17528</v>
+        <v>13849.1</v>
       </c>
       <c r="AE15">
-        <v>163.9611450863285</v>
+        <v>130.1981517513312</v>
       </c>
       <c r="AF15">
-        <v>17691.96114508633</v>
+        <v>13979.29815175133</v>
       </c>
       <c r="AG15">
-        <v>14631.46114508633</v>
+        <v>4677.498151751332</v>
       </c>
       <c r="AH15">
-        <v>0.3791817506887417</v>
+        <v>0.6095474070413891</v>
       </c>
       <c r="AI15">
-        <v>0.6944679665475676</v>
+        <v>0.6568077620759268</v>
       </c>
       <c r="AJ15">
-        <v>0.3356012043002662</v>
+        <v>0.3431238610287153</v>
       </c>
       <c r="AK15">
-        <v>0.6527513376109497</v>
+        <v>0.3903803965373922</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>-475</v>
       </c>
       <c r="AN15">
-        <v>308.0492091388401</v>
+        <v>297.1909871244635</v>
       </c>
       <c r="AP15">
-        <v>257.1434296148739</v>
+        <v>100.3754968186981</v>
+      </c>
+      <c r="AQ15">
+        <v>-0</v>
       </c>
     </row>
     <row r="16">
@@ -2359,7 +2356,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Nanjing Securities Co., Ltd. (SHSE:601990)</t>
+          <t>Shanxi Securities Co., Ltd. (SZSE:002500)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2367,6 +2364,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D16">
+        <v>-0.00382</v>
+      </c>
+      <c r="E16">
+        <v>-0.132</v>
+      </c>
       <c r="G16">
         <v>0</v>
       </c>
@@ -2374,34 +2377,34 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.009071208779401218</v>
+        <v>0.01874448133949951</v>
       </c>
       <c r="J16">
-        <v>0.006913530312531299</v>
+        <v>0.01458632837615357</v>
       </c>
       <c r="K16">
-        <v>92</v>
+        <v>105.8</v>
       </c>
       <c r="L16">
-        <v>0.3317706455102777</v>
+        <v>0.2118118118118118</v>
       </c>
       <c r="M16">
-        <v>41.2</v>
+        <v>108.7</v>
       </c>
       <c r="N16">
-        <v>0.006735988489961416</v>
+        <v>0.02208810859140047</v>
       </c>
       <c r="O16">
-        <v>0.4478260869565218</v>
+        <v>1.027410207939509</v>
       </c>
       <c r="P16">
-        <v>41.2</v>
+        <v>108.7</v>
       </c>
       <c r="Q16">
-        <v>0.006735988489961416</v>
+        <v>0.02208810859140047</v>
       </c>
       <c r="R16">
-        <v>0.4478260869565218</v>
+        <v>1.027410207939509</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2410,55 +2413,55 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>117</v>
+        <v>1249.6</v>
       </c>
       <c r="V16">
-        <v>0.01912889935256033</v>
+        <v>0.2539218076891815</v>
       </c>
       <c r="W16">
-        <v>0.05981405630323126</v>
+        <v>0.05967960288808664</v>
       </c>
       <c r="X16">
-        <v>0.05101461776358029</v>
+        <v>0.05055342145113996</v>
       </c>
       <c r="Y16">
-        <v>0.008799438539650969</v>
+        <v>0.009126181436946684</v>
       </c>
       <c r="Z16">
-        <v>0.1224946806890976</v>
+        <v>0.09300488463134754</v>
       </c>
       <c r="AA16">
-        <v>0.0008468706880679186</v>
+        <v>0.001356599787819114</v>
       </c>
       <c r="AB16">
-        <v>0.04667897436876684</v>
+        <v>0.03400058385332509</v>
       </c>
       <c r="AC16">
-        <v>-0.04583210368069892</v>
+        <v>-0.03264398406550598</v>
       </c>
       <c r="AD16">
-        <v>1915</v>
+        <v>5428.5</v>
       </c>
       <c r="AE16">
-        <v>11.32276902736021</v>
+        <v>25.18565785459997</v>
       </c>
       <c r="AF16">
-        <v>1926.32276902736</v>
+        <v>5453.6856578546</v>
       </c>
       <c r="AG16">
-        <v>1809.32276902736</v>
+        <v>4204.085657854601</v>
       </c>
       <c r="AH16">
-        <v>0.2395112730287878</v>
+        <v>0.5256622422364466</v>
       </c>
       <c r="AI16">
-        <v>0.55326713147971</v>
+        <v>0.6800797350929075</v>
       </c>
       <c r="AJ16">
-        <v>0.2282848923378882</v>
+        <v>0.4607072935011003</v>
       </c>
       <c r="AK16">
-        <v>0.5377330892406273</v>
+        <v>0.6210255502087773</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2467,10 +2470,10 @@
         <v>0</v>
       </c>
       <c r="AN16">
-        <v>400.6276150627615</v>
+        <v>376.9791666666667</v>
       </c>
       <c r="AP16">
-        <v>378.5194077463096</v>
+        <v>291.9503929065695</v>
       </c>
     </row>
     <row r="17">
@@ -2481,7 +2484,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SDIC Capital Co.,Ltd (SHSE:600061)</t>
+          <t>ChinaLin Securities Co., Ltd. (SZSE:002945)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2490,40 +2493,40 @@
         </is>
       </c>
       <c r="G17">
-        <v>2.393031492294439e-05</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01476890271075523</v>
+        <v>0.01031566653646351</v>
       </c>
       <c r="J17">
-        <v>0.01110817682556346</v>
+        <v>0.009401924512254618</v>
       </c>
       <c r="K17">
-        <v>424.9</v>
+        <v>117.3</v>
       </c>
       <c r="L17">
-        <v>0.4067196324303627</v>
+        <v>0.5696940262263235</v>
       </c>
       <c r="M17">
-        <v>319.1</v>
+        <v>21.5</v>
       </c>
       <c r="N17">
-        <v>0.03471723567682834</v>
+        <v>0.0034497143957384</v>
       </c>
       <c r="O17">
-        <v>0.7510002353494941</v>
+        <v>0.1832907075873828</v>
       </c>
       <c r="P17">
-        <v>319.1</v>
+        <v>21.5</v>
       </c>
       <c r="Q17">
-        <v>0.03471723567682834</v>
+        <v>0.0034497143957384</v>
       </c>
       <c r="R17">
-        <v>0.7510002353494941</v>
+        <v>0.1832907075873828</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2532,70 +2535,67 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>6446.5</v>
+        <v>339.2</v>
       </c>
       <c r="V17">
-        <v>0.7013621428726854</v>
+        <v>0.05442526153648675</v>
       </c>
       <c r="W17">
-        <v>0.07960506594724219</v>
+        <v>0.1611706512778236</v>
       </c>
       <c r="X17">
-        <v>0.06656554316707697</v>
+        <v>0.03833154016211654</v>
       </c>
       <c r="Y17">
-        <v>0.01303952278016522</v>
+        <v>0.1228391111157071</v>
       </c>
       <c r="Z17">
-        <v>0.1268616581499307</v>
+        <v>0.1810380418557156</v>
       </c>
       <c r="AA17">
-        <v>0.001409201731113614</v>
+        <v>0.00170210600337383</v>
       </c>
       <c r="AB17">
-        <v>0.04727593254957876</v>
+        <v>0.03435256503894842</v>
       </c>
       <c r="AC17">
-        <v>-0.04586673081846515</v>
+        <v>-0.03265045903557459</v>
       </c>
       <c r="AD17">
-        <v>10185.2</v>
+        <v>2361.1</v>
       </c>
       <c r="AE17">
-        <v>114.8546366903701</v>
+        <v>37.53002130071082</v>
       </c>
       <c r="AF17">
-        <v>10300.05463669037</v>
+        <v>2398.630021300711</v>
       </c>
       <c r="AG17">
-        <v>3853.554636690371</v>
+        <v>2059.430021300711</v>
       </c>
       <c r="AH17">
-        <v>0.5284395048331452</v>
+        <v>0.2779077370118141</v>
       </c>
       <c r="AI17">
-        <v>0.6340073493390413</v>
+        <v>0.7364470101945226</v>
       </c>
       <c r="AJ17">
-        <v>0.2954057521865062</v>
+        <v>0.2483685767810343</v>
       </c>
       <c r="AK17">
-        <v>0.3932417445213926</v>
+        <v>0.7058087709929921</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>-248.1</v>
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>265.2395833333334</v>
+        <v>245.1817237798546</v>
       </c>
       <c r="AP17">
-        <v>100.3529853304784</v>
-      </c>
-      <c r="AQ17">
-        <v>-0</v>
+        <v>213.8556616096273</v>
       </c>
     </row>
     <row r="18">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Shanxi Securities Co., Ltd. (SZSE:002500)</t>
+          <t>Nanhua Futures Co., Ltd. (SHSE:603093)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2614,12 +2614,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D18">
-        <v>0.308</v>
-      </c>
-      <c r="E18">
-        <v>0.066</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
@@ -2627,34 +2621,34 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.009468218328254724</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.007093112540129602</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>85.90000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="L18">
-        <v>0.0897971984110391</v>
+        <v>0.006763183662050636</v>
       </c>
       <c r="M18">
-        <v>102.4</v>
+        <v>11.9</v>
       </c>
       <c r="N18">
-        <v>0.03040470322753051</v>
+        <v>0.007283633247643531</v>
       </c>
       <c r="O18">
-        <v>1.192083818393481</v>
+        <v>1.230610134436401</v>
       </c>
       <c r="P18">
-        <v>102.4</v>
+        <v>11.9</v>
       </c>
       <c r="Q18">
-        <v>0.03040470322753051</v>
+        <v>0.007283633247643531</v>
       </c>
       <c r="R18">
-        <v>1.192083818393481</v>
+        <v>1.230610134436401</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2663,67 +2657,61 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>838.8</v>
+        <v>223.2</v>
       </c>
       <c r="V18">
-        <v>0.2490572760473886</v>
+        <v>0.136614028644877</v>
       </c>
       <c r="W18">
-        <v>0.04764017525372969</v>
+        <v>0.02836608976239367</v>
       </c>
       <c r="X18">
-        <v>0.07078810646627899</v>
+        <v>0.03328687376861833</v>
       </c>
       <c r="Y18">
-        <v>-0.0231479312125493</v>
+        <v>-0.004920784006224664</v>
       </c>
       <c r="Z18">
-        <v>0.2094814780557496</v>
+        <v>6.33641778345033</v>
       </c>
       <c r="AA18">
-        <v>0.001485875698922122</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.04747122613280861</v>
+        <v>0.03279924118087087</v>
       </c>
       <c r="AC18">
-        <v>-0.04598535043388649</v>
+        <v>-0.03279924118087087</v>
       </c>
       <c r="AD18">
-        <v>4478.2</v>
+        <v>141</v>
       </c>
       <c r="AE18">
-        <v>32.71351173595766</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>4510.913511735957</v>
+        <v>141</v>
       </c>
       <c r="AG18">
-        <v>3672.113511735957</v>
+        <v>-82.19999999999999</v>
       </c>
       <c r="AH18">
-        <v>0.5725371599437765</v>
+        <v>0.07944557133198107</v>
       </c>
       <c r="AI18">
-        <v>0.7091278265402762</v>
+        <v>0.2782711663706335</v>
       </c>
       <c r="AJ18">
-        <v>0.5216060318086622</v>
+        <v>-0.05297757153905645</v>
       </c>
       <c r="AK18">
-        <v>0.664947219894375</v>
+        <v>-0.2899470899470899</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
         <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>287.0641025641025</v>
-      </c>
-      <c r="AP18">
-        <v>235.391891777946</v>
       </c>
     </row>
     <row r="19">
@@ -2734,7 +2722,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Guolian Securities Co., Ltd. (SEHK:1456)</t>
+          <t>First Capital Securities Co., Ltd. (SZSE:002797)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2742,6 +2730,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D19">
+        <v>0.0141</v>
+      </c>
+      <c r="E19">
+        <v>-0.04679999999999999</v>
+      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -2749,34 +2743,34 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02491971666333546</v>
+        <v>0.01491133541332962</v>
       </c>
       <c r="J19">
-        <v>0.01889151853715717</v>
+        <v>0.01237415072872559</v>
       </c>
       <c r="K19">
-        <v>39.8</v>
+        <v>107</v>
       </c>
       <c r="L19">
-        <v>0.1981085116973618</v>
+        <v>0.2530747398297067</v>
       </c>
       <c r="M19">
-        <v>13.3168</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="N19">
-        <v>0.0232</v>
+        <v>0.0108670195325308</v>
       </c>
       <c r="O19">
-        <v>0.3345929648241207</v>
+        <v>0.6504672897196261</v>
       </c>
       <c r="P19">
-        <v>13.3168</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="Q19">
-        <v>0.0232</v>
+        <v>0.0108670195325308</v>
       </c>
       <c r="R19">
-        <v>0.3345929648241207</v>
+        <v>0.6504672897196261</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2785,55 +2779,55 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>385.9</v>
+        <v>359.5</v>
       </c>
       <c r="V19">
-        <v>0.6722996515679442</v>
+        <v>0.05613065405093135</v>
       </c>
       <c r="W19">
-        <v>0.03407242530605256</v>
+        <v>0.08621384255902023</v>
       </c>
       <c r="X19">
-        <v>0.08037378633621789</v>
+        <v>0.03909827709076692</v>
       </c>
       <c r="Y19">
-        <v>-0.04630136103016533</v>
+        <v>0.04711556546825331</v>
       </c>
       <c r="Z19">
-        <v>0.09573194014015431</v>
+        <v>0.1278327193588453</v>
       </c>
       <c r="AA19">
-        <v>0.001808521721755746</v>
+        <v>0.001581821337409229</v>
       </c>
       <c r="AB19">
-        <v>0.04780273105317302</v>
+        <v>0.03456063163456001</v>
       </c>
       <c r="AC19">
-        <v>-0.04599420933141728</v>
+        <v>-0.03297881029715078</v>
       </c>
       <c r="AD19">
-        <v>1026.9</v>
+        <v>2734.6</v>
       </c>
       <c r="AE19">
-        <v>26.96814461167953</v>
+        <v>20.97743693622118</v>
       </c>
       <c r="AF19">
-        <v>1053.86814461168</v>
+        <v>2755.577436936221</v>
       </c>
       <c r="AG19">
-        <v>667.9681446116796</v>
+        <v>2396.077436936221</v>
       </c>
       <c r="AH19">
-        <v>0.6473915888704087</v>
+        <v>0.300818119964919</v>
       </c>
       <c r="AI19">
-        <v>0.4780383619292982</v>
+        <v>0.5693250723444019</v>
       </c>
       <c r="AJ19">
-        <v>0.5378303360755924</v>
+        <v>0.2722574743090376</v>
       </c>
       <c r="AK19">
-        <v>0.3672842385185691</v>
+        <v>0.5347697859619268</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2842,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>98.74038461538463</v>
+        <v>260.4380952380952</v>
       </c>
       <c r="AP19">
-        <v>64.2277062126615</v>
+        <v>228.197851136783</v>
       </c>
     </row>
     <row r="20">
@@ -2856,7 +2850,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>China Galaxy Securities Co., Ltd. (SEHK:6881)</t>
+          <t>Huaan Securities Co., Ltd. (SHSE:600909)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2864,15 +2858,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D20">
-        <v>0.09140000000000001</v>
-      </c>
-      <c r="E20">
-        <v>0.0919</v>
-      </c>
-      <c r="F20">
-        <v>0.104</v>
-      </c>
       <c r="G20">
         <v>0</v>
       </c>
@@ -2880,34 +2865,34 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01809674233993329</v>
+        <v>0.006777028243450708</v>
       </c>
       <c r="J20">
-        <v>0.01389177414331231</v>
+        <v>0.005349556036752502</v>
       </c>
       <c r="K20">
-        <v>682.4</v>
+        <v>182.1</v>
       </c>
       <c r="L20">
-        <v>0.3132143021067609</v>
+        <v>0.3445600756859035</v>
       </c>
       <c r="M20">
-        <v>276.2</v>
+        <v>100.3</v>
       </c>
       <c r="N20">
-        <v>0.02137175400043331</v>
+        <v>0.02260485452209776</v>
       </c>
       <c r="O20">
-        <v>0.4047479484173505</v>
+        <v>0.5507962657880285</v>
       </c>
       <c r="P20">
-        <v>276.2</v>
+        <v>100.3</v>
       </c>
       <c r="Q20">
-        <v>0.02137175400043331</v>
+        <v>0.02260485452209776</v>
       </c>
       <c r="R20">
-        <v>0.4047479484173505</v>
+        <v>0.5507962657880285</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2916,55 +2901,55 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>1140.3</v>
+        <v>229.8</v>
       </c>
       <c r="V20">
-        <v>0.08823392862669843</v>
+        <v>0.05179058393996078</v>
       </c>
       <c r="W20">
-        <v>0.07000410340582683</v>
+        <v>0.09992317822651448</v>
       </c>
       <c r="X20">
-        <v>0.07401724807151035</v>
+        <v>0.04522863591290893</v>
       </c>
       <c r="Y20">
-        <v>-0.004013144665683518</v>
+        <v>0.05469454231360554</v>
       </c>
       <c r="Z20">
-        <v>0.1098519167168047</v>
+        <v>0.1166781103200742</v>
       </c>
       <c r="AA20">
-        <v>0.001526038016239806</v>
+        <v>0.0006241760894196274</v>
       </c>
       <c r="AB20">
-        <v>0.0475975723185297</v>
+        <v>0.03365612853648046</v>
       </c>
       <c r="AC20">
-        <v>-0.04607153430228989</v>
+        <v>-0.03303195244706084</v>
       </c>
       <c r="AD20">
-        <v>19316.4</v>
+        <v>3485.8</v>
       </c>
       <c r="AE20">
-        <v>155.3631373199367</v>
+        <v>33.0917028666815</v>
       </c>
       <c r="AF20">
-        <v>19471.76313731994</v>
+        <v>3518.891702866681</v>
       </c>
       <c r="AG20">
-        <v>18331.46313731994</v>
+        <v>3289.091702866681</v>
       </c>
       <c r="AH20">
-        <v>0.6010663641824769</v>
+        <v>0.4422945415590068</v>
       </c>
       <c r="AI20">
-        <v>0.6636985647780475</v>
+        <v>0.6195568152212575</v>
       </c>
       <c r="AJ20">
-        <v>0.5865117935222263</v>
+        <v>0.4257067167575347</v>
       </c>
       <c r="AK20">
-        <v>0.6500988404037698</v>
+        <v>0.603515057214182</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -2973,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>273.9914893617021</v>
+        <v>341.7450980392157</v>
       </c>
       <c r="AP20">
-        <v>260.0207537208502</v>
+        <v>322.4599708692825</v>
       </c>
     </row>
     <row r="21">
@@ -2987,7 +2972,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hengtai Securities Co., Ltd (SEHK:1476)</t>
+          <t>Sealand Securities Co., Ltd. (SZSE:000750)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2995,6 +2980,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D21">
+        <v>0.00041</v>
+      </c>
+      <c r="E21">
+        <v>-0.128</v>
+      </c>
       <c r="G21">
         <v>0</v>
       </c>
@@ -3002,34 +2993,34 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.01981640485233113</v>
+        <v>0.01224739017885559</v>
       </c>
       <c r="J21">
-        <v>0.0145502342714951</v>
+        <v>0.009290640375951094</v>
       </c>
       <c r="K21">
-        <v>32.1</v>
+        <v>121.3</v>
       </c>
       <c r="L21">
-        <v>0.07985074626865672</v>
+        <v>0.1842345078979344</v>
       </c>
       <c r="M21">
-        <v>52.8</v>
+        <v>135.1</v>
       </c>
       <c r="N21">
-        <v>0.03947663551401869</v>
+        <v>0.02764533753504267</v>
       </c>
       <c r="O21">
-        <v>1.644859813084112</v>
+        <v>1.113767518549052</v>
       </c>
       <c r="P21">
-        <v>52.8</v>
+        <v>135.1</v>
       </c>
       <c r="Q21">
-        <v>0.03947663551401869</v>
+        <v>0.02764533753504267</v>
       </c>
       <c r="R21">
-        <v>1.644859813084112</v>
+        <v>1.113767518549052</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3038,55 +3029,55 @@
         <v>0</v>
       </c>
       <c r="U21">
-        <v>321.4</v>
+        <v>763.9</v>
       </c>
       <c r="V21">
-        <v>0.2402990654205607</v>
+        <v>0.1563158648632057</v>
       </c>
       <c r="W21">
-        <v>0.02145005011693953</v>
+        <v>0.0615736040609137</v>
       </c>
       <c r="X21">
-        <v>0.06175044859613199</v>
+        <v>0.051641870734766</v>
       </c>
       <c r="Y21">
-        <v>-0.04030039847919246</v>
+        <v>0.009931733326147697</v>
       </c>
       <c r="Z21">
-        <v>0.1532211297193856</v>
+        <v>0.08924321600504184</v>
       </c>
       <c r="AA21">
-        <v>0.0022294033327602</v>
+        <v>0.0008291266258961667</v>
       </c>
       <c r="AB21">
-        <v>0.04832438339407572</v>
+        <v>0.03405869374965222</v>
       </c>
       <c r="AC21">
-        <v>-0.04609498006131552</v>
+        <v>-0.03322956712375605</v>
       </c>
       <c r="AD21">
-        <v>1136</v>
+        <v>5699.3</v>
       </c>
       <c r="AE21">
-        <v>29.16902624681444</v>
+        <v>31.18159153120739</v>
       </c>
       <c r="AF21">
-        <v>1165.169026246814</v>
+        <v>5730.481591531207</v>
       </c>
       <c r="AG21">
-        <v>843.7690262468144</v>
+        <v>4966.581591531208</v>
       </c>
       <c r="AH21">
-        <v>0.4655705624783262</v>
+        <v>0.5397264421674397</v>
       </c>
       <c r="AI21">
-        <v>0.4339761138648939</v>
+        <v>0.6697397146446296</v>
       </c>
       <c r="AJ21">
-        <v>0.3868248327436436</v>
+        <v>0.5040433216823429</v>
       </c>
       <c r="AK21">
-        <v>0.3570044781110241</v>
+        <v>0.6373637549948669</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3095,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>82.31884057971014</v>
+        <v>398.5524475524475</v>
       </c>
       <c r="AP21">
-        <v>61.14268306136336</v>
+        <v>347.3133980091753</v>
       </c>
     </row>
     <row r="22">
@@ -3109,7 +3100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Huaan Securities Co., Ltd. (SHSE:600909)</t>
+          <t>The Pacific Securities Co., Ltd (SHSE:601099)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3117,6 +3108,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D22">
+        <v>-0.134</v>
+      </c>
+      <c r="E22">
+        <v>-0.302</v>
+      </c>
       <c r="G22">
         <v>0</v>
       </c>
@@ -3124,34 +3121,34 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01062293190024299</v>
+        <v>0.01590051690208453</v>
       </c>
       <c r="J22">
-        <v>0.008808181033951479</v>
+        <v>0.01590051690208453</v>
       </c>
       <c r="K22">
-        <v>149.6</v>
+        <v>23.8</v>
       </c>
       <c r="L22">
-        <v>0.3932702418506835</v>
+        <v>0.1386946386946387</v>
       </c>
       <c r="M22">
-        <v>80.7</v>
+        <v>66.8</v>
       </c>
       <c r="N22">
-        <v>0.02125754023654611</v>
+        <v>0.01568148739377435</v>
       </c>
       <c r="O22">
-        <v>0.5394385026737968</v>
+        <v>2.80672268907563</v>
       </c>
       <c r="P22">
-        <v>80.7</v>
+        <v>66.8</v>
       </c>
       <c r="Q22">
-        <v>0.02125754023654611</v>
+        <v>0.01568148739377435</v>
       </c>
       <c r="R22">
-        <v>0.5394385026737968</v>
+        <v>2.80672268907563</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3160,55 +3157,55 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>189.2</v>
+        <v>247.2</v>
       </c>
       <c r="V22">
-        <v>0.04983800015804862</v>
+        <v>0.05803089346917695</v>
       </c>
       <c r="W22">
-        <v>0.08305574061736619</v>
+        <v>0.01661895119055932</v>
       </c>
       <c r="X22">
-        <v>0.05961467186782578</v>
+        <v>0.0372207657362299</v>
       </c>
       <c r="Y22">
-        <v>0.02344106874954041</v>
+        <v>-0.02060181454567058</v>
       </c>
       <c r="Z22">
-        <v>0.08515328361107707</v>
+        <v>0.04796367698669694</v>
       </c>
       <c r="AA22">
-        <v>0.0007500455376817804</v>
+        <v>0.0007626472566130976</v>
       </c>
       <c r="AB22">
-        <v>0.04684874747623768</v>
+        <v>0.03402574713619858</v>
       </c>
       <c r="AC22">
-        <v>-0.04609870193855591</v>
+        <v>-0.03326309987958549</v>
       </c>
       <c r="AD22">
-        <v>2863.8</v>
+        <v>1351.6</v>
       </c>
       <c r="AE22">
-        <v>23.29518352573783</v>
+        <v>7.807356498011471</v>
       </c>
       <c r="AF22">
-        <v>2887.095183525738</v>
+        <v>1359.407356498011</v>
       </c>
       <c r="AG22">
-        <v>2697.895183525738</v>
+        <v>1112.207356498011</v>
       </c>
       <c r="AH22">
-        <v>0.4319803190214301</v>
+        <v>0.241921550541466</v>
       </c>
       <c r="AI22">
-        <v>0.6072476250038479</v>
+        <v>0.4673578981608839</v>
       </c>
       <c r="AJ22">
-        <v>0.4154317982880573</v>
+        <v>0.2070375713750054</v>
       </c>
       <c r="AK22">
-        <v>0.5909703912028864</v>
+        <v>0.4178862604991798</v>
       </c>
       <c r="AL22">
         <v>0</v>
@@ -3217,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="AN22">
-        <v>329.1724137931035</v>
+        <v>315.0582750582751</v>
       </c>
       <c r="AP22">
-        <v>310.1028946581308</v>
+        <v>259.2557940554805</v>
       </c>
     </row>
     <row r="23">
@@ -3231,7 +3228,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The Pacific Securities Co., Ltd (SHSE:601099)</t>
+          <t>Guosen Securities Co., Ltd. (SZSE:002736)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3240,43 +3237,46 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.0329</v>
+        <v>-0.0721</v>
+      </c>
+      <c r="E23">
+        <v>-0.129</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.03828054974604123</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.01799941197097425</v>
+        <v>0.004253943550981299</v>
       </c>
       <c r="J23">
-        <v>0.01799941197097425</v>
+        <v>0.003391316215230189</v>
       </c>
       <c r="K23">
-        <v>-104.2</v>
+        <v>979.2</v>
       </c>
       <c r="L23">
-        <v>-0.6561712846347607</v>
+        <v>0.3657006274275471</v>
       </c>
       <c r="M23">
-        <v>81.90000000000001</v>
+        <v>616.3</v>
       </c>
       <c r="N23">
-        <v>0.02207428170988087</v>
+        <v>0.03068779907284306</v>
       </c>
       <c r="O23">
-        <v>-0.7859884836852208</v>
+        <v>0.629391339869281</v>
       </c>
       <c r="P23">
-        <v>81.90000000000001</v>
+        <v>616.3</v>
       </c>
       <c r="Q23">
-        <v>0.02207428170988087</v>
+        <v>0.03068779907284306</v>
       </c>
       <c r="R23">
-        <v>-0.7859884836852208</v>
+        <v>0.629391339869281</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3285,55 +3285,55 @@
         <v>0</v>
       </c>
       <c r="U23">
-        <v>279.2</v>
+        <v>1117.2</v>
       </c>
       <c r="V23">
-        <v>0.07525200797800657</v>
+        <v>0.05562941607038824</v>
       </c>
       <c r="W23">
-        <v>-0.0635986328125</v>
+        <v>0.1274850603444909</v>
       </c>
       <c r="X23">
-        <v>0.0575560652112949</v>
+        <v>0.04638428093418064</v>
       </c>
       <c r="Y23">
-        <v>-0.1211546980237949</v>
+        <v>0.08110077941031026</v>
       </c>
       <c r="Z23">
-        <v>0.03170161534491537</v>
+        <v>0.1273088989597411</v>
       </c>
       <c r="AA23">
-        <v>0.0005706104347384906</v>
+        <v>0.0004317447333852716</v>
       </c>
       <c r="AB23">
-        <v>0.04668652274148592</v>
+        <v>0.03374079561925779</v>
       </c>
       <c r="AC23">
-        <v>-0.04611591230674743</v>
+        <v>-0.03330905088587252</v>
       </c>
       <c r="AD23">
-        <v>2417</v>
+        <v>17255</v>
       </c>
       <c r="AE23">
-        <v>8.908466895046445</v>
+        <v>45.54820373946237</v>
       </c>
       <c r="AF23">
-        <v>2425.908466895046</v>
+        <v>17300.54820373946</v>
       </c>
       <c r="AG23">
-        <v>2146.708466895047</v>
+        <v>16183.34820373946</v>
       </c>
       <c r="AH23">
-        <v>0.3953496715358079</v>
+        <v>0.4627863141316346</v>
       </c>
       <c r="AI23">
-        <v>0.6215642737901498</v>
+        <v>0.5968083590451634</v>
       </c>
       <c r="AJ23">
-        <v>0.3665258692412334</v>
+        <v>0.4462371765842261</v>
       </c>
       <c r="AK23">
-        <v>0.5924065046917092</v>
+        <v>0.5806466967478032</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>520.9051724137931</v>
+        <v>841.7073170731708</v>
       </c>
       <c r="AP23">
-        <v>462.652686830829</v>
+        <v>789.4316196946079</v>
       </c>
     </row>
     <row r="24">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CITIC Securities Company Limited (SHSE:600030)</t>
+          <t>HUAXI Securities Co., Ltd. (SZSE:002926)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3364,15 +3364,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D24">
-        <v>0.118</v>
-      </c>
-      <c r="E24">
-        <v>0.0975</v>
-      </c>
-      <c r="F24">
-        <v>0.0557</v>
-      </c>
       <c r="G24">
         <v>0</v>
       </c>
@@ -3380,34 +3371,34 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.006488676452891119</v>
+        <v>0.005843205388117188</v>
       </c>
       <c r="J24">
-        <v>0.004899388239208306</v>
+        <v>0.004510485763778712</v>
       </c>
       <c r="K24">
-        <v>1762.4</v>
+        <v>269.6</v>
       </c>
       <c r="L24">
-        <v>0.3117085249380969</v>
+        <v>0.4041373107480138</v>
       </c>
       <c r="M24">
-        <v>1410.2</v>
+        <v>102.6</v>
       </c>
       <c r="N24">
-        <v>0.03443753891988913</v>
+        <v>0.02044680045437334</v>
       </c>
       <c r="O24">
-        <v>0.8001588742623695</v>
+        <v>0.3805637982195845</v>
       </c>
       <c r="P24">
-        <v>1410.2</v>
+        <v>102.6</v>
       </c>
       <c r="Q24">
-        <v>0.03443753891988913</v>
+        <v>0.02044680045437334</v>
       </c>
       <c r="R24">
-        <v>0.8001588742623695</v>
+        <v>0.3805637982195845</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3416,55 +3407,55 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>5193.9</v>
+        <v>359.4</v>
       </c>
       <c r="V24">
-        <v>0.1268367135129855</v>
+        <v>0.07162358755654756</v>
       </c>
       <c r="W24">
-        <v>0.07923035425283223</v>
+        <v>0.0995127712978001</v>
       </c>
       <c r="X24">
-        <v>0.06591921688912403</v>
+        <v>0.04948991427528131</v>
       </c>
       <c r="Y24">
-        <v>0.0133111373637082</v>
+        <v>0.0500228570225188</v>
       </c>
       <c r="Z24">
-        <v>0.1139026846546592</v>
+        <v>0.1077342224106412</v>
       </c>
       <c r="AA24">
-        <v>0.0005580534736112899</v>
+        <v>0.0004859336764549667</v>
       </c>
       <c r="AB24">
-        <v>0.04681270614689887</v>
+        <v>0.03394026990165158</v>
       </c>
       <c r="AC24">
-        <v>-0.04625465267328758</v>
+        <v>-0.03345433622519661</v>
       </c>
       <c r="AD24">
-        <v>44331</v>
+        <v>5213.5</v>
       </c>
       <c r="AE24">
-        <v>186.5651166767681</v>
+        <v>31.50998842793511</v>
       </c>
       <c r="AF24">
-        <v>44517.56511667677</v>
+        <v>5245.009988427935</v>
       </c>
       <c r="AG24">
-        <v>39323.66511667677</v>
+        <v>4885.609988427936</v>
       </c>
       <c r="AH24">
-        <v>0.5208739185779093</v>
+        <v>0.5110646000346888</v>
       </c>
       <c r="AI24">
-        <v>0.6602593148580613</v>
+        <v>0.6291613631733941</v>
       </c>
       <c r="AJ24">
-        <v>0.4898731108897968</v>
+        <v>0.4933210542662833</v>
       </c>
       <c r="AK24">
-        <v>0.631903763581845</v>
+        <v>0.6124536323951015</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3473,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>599.0675675675676</v>
+        <v>511.1274509803922</v>
       </c>
       <c r="AP24">
-        <v>531.4008799550915</v>
+        <v>478.9813714145035</v>
       </c>
     </row>
     <row r="25">
@@ -3487,7 +3478,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sinolink Securities Co., Ltd. (SHSE:600109)</t>
+          <t>Guangdong Golden Dragon Development Inc. (SZSE:000712)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3496,46 +3487,46 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.141</v>
+        <v>-0.0139</v>
       </c>
       <c r="E25">
-        <v>0.133</v>
+        <v>-0.291</v>
       </c>
       <c r="G25">
-        <v>0.008915126625598905</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.013597271942636</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.00940210637049785</v>
       </c>
       <c r="K25">
-        <v>164.7</v>
+        <v>21.8</v>
       </c>
       <c r="L25">
-        <v>0.2818275154004107</v>
+        <v>0.07915758896151054</v>
       </c>
       <c r="M25">
-        <v>63.4</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="N25">
-        <v>0.01569501175888105</v>
+        <v>0.03576366485390358</v>
       </c>
       <c r="O25">
-        <v>0.3849423193685489</v>
+        <v>3.559633027522935</v>
       </c>
       <c r="P25">
-        <v>63.4</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="Q25">
-        <v>0.01569501175888105</v>
+        <v>0.03576366485390358</v>
       </c>
       <c r="R25">
-        <v>0.3849423193685489</v>
+        <v>3.559633027522935</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3544,61 +3535,67 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>613.2</v>
+        <v>165.6</v>
       </c>
       <c r="V25">
-        <v>0.151800965466023</v>
+        <v>0.07632039819338186</v>
       </c>
       <c r="W25">
-        <v>0.05874170768243098</v>
+        <v>0.04583683767872161</v>
       </c>
       <c r="X25">
-        <v>0.05323499482193524</v>
+        <v>0.04066298523611277</v>
       </c>
       <c r="Y25">
-        <v>0.005506712860495741</v>
+        <v>0.005173852442608845</v>
       </c>
       <c r="Z25">
-        <v>0.1515638777944914</v>
+        <v>0.1414500853005266</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>0.001329928748111545</v>
       </c>
       <c r="AB25">
-        <v>0.04626730272521211</v>
+        <v>0.03494676732735059</v>
       </c>
       <c r="AC25">
-        <v>-0.04626730272521211</v>
+        <v>-0.03361683857923905</v>
       </c>
       <c r="AD25">
-        <v>1736.9</v>
+        <v>1119.8</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>14.67655653499023</v>
       </c>
       <c r="AF25">
-        <v>1736.9</v>
+        <v>1134.47655653499</v>
       </c>
       <c r="AG25">
-        <v>1123.7</v>
+        <v>968.8765565349901</v>
       </c>
       <c r="AH25">
-        <v>0.3006890104563396</v>
+        <v>0.3433358367934711</v>
       </c>
       <c r="AI25">
-        <v>0.3785085425383543</v>
+        <v>0.5820883543883832</v>
       </c>
       <c r="AJ25">
-        <v>0.2176363495506663</v>
+        <v>0.3086895190005186</v>
       </c>
       <c r="AK25">
-        <v>0.2826491598752389</v>
+        <v>0.5432820976504636</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
         <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>167.6347305389222</v>
+      </c>
+      <c r="AP25">
+        <v>145.0414006788907</v>
       </c>
     </row>
     <row r="26">
@@ -3609,7 +3606,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Guangdong Golden Dragon Development Inc. (SZSE:000712)</t>
+          <t>Minmetals Capital Company Limited (SHSE:600390)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3618,46 +3615,43 @@
         </is>
       </c>
       <c r="D26">
-        <v>0.148</v>
-      </c>
-      <c r="E26">
-        <v>-0.409</v>
+        <v>0.575</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>-1.322331534962446e-05</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0.01210491579989301</v>
+        <v>0.006047878044727662</v>
       </c>
       <c r="J26">
-        <v>0.008492554084872303</v>
+        <v>0.004325466299974568</v>
       </c>
       <c r="K26">
-        <v>3.04</v>
+        <v>483.6</v>
       </c>
       <c r="L26">
-        <v>0.01491658488714426</v>
+        <v>0.2557918121231356</v>
       </c>
       <c r="M26">
-        <v>74.59999999999999</v>
+        <v>172.6</v>
       </c>
       <c r="N26">
-        <v>0.03813905930470347</v>
+        <v>0.03589029132270071</v>
       </c>
       <c r="O26">
-        <v>24.53947368421052</v>
+        <v>0.3569065343258891</v>
       </c>
       <c r="P26">
-        <v>74.59999999999999</v>
+        <v>172.6</v>
       </c>
       <c r="Q26">
-        <v>0.03813905930470347</v>
+        <v>0.03589029132270071</v>
       </c>
       <c r="R26">
-        <v>24.53947368421052</v>
+        <v>0.3569065343258891</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3666,67 +3660,70 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>204.5</v>
+        <v>2365.7</v>
       </c>
       <c r="V26">
-        <v>0.1045501022494888</v>
+        <v>0.4919215653656608</v>
       </c>
       <c r="W26">
-        <v>0.005859676175790286</v>
+        <v>0.1004695225827897</v>
       </c>
       <c r="X26">
-        <v>0.06197136332861011</v>
+        <v>0.06245898500127324</v>
       </c>
       <c r="Y26">
-        <v>-0.05611168715281983</v>
+        <v>0.03801053758151648</v>
       </c>
       <c r="Z26">
-        <v>0.08719219808757142</v>
+        <v>0.1764865772127558</v>
       </c>
       <c r="AA26">
-        <v>0.0007404844580375996</v>
+        <v>0.0007633867421316347</v>
       </c>
       <c r="AB26">
-        <v>0.04701189637277181</v>
+        <v>0.03449153016028579</v>
       </c>
       <c r="AC26">
-        <v>-0.04627141191473421</v>
+        <v>-0.03372814341815416</v>
       </c>
       <c r="AD26">
-        <v>1717.7</v>
+        <v>8677.200000000001</v>
       </c>
       <c r="AE26">
-        <v>8.665090799909027</v>
+        <v>40.82940884318943</v>
       </c>
       <c r="AF26">
-        <v>1726.365090799909</v>
+        <v>8718.029408843191</v>
       </c>
       <c r="AG26">
-        <v>1521.865090799909</v>
+        <v>6352.329408843191</v>
       </c>
       <c r="AH26">
-        <v>0.4688196439600985</v>
+        <v>0.6444848086648663</v>
       </c>
       <c r="AI26">
-        <v>0.6996796287817418</v>
+        <v>0.5876770090357193</v>
       </c>
       <c r="AJ26">
-        <v>0.4375860049389897</v>
+        <v>0.5691322478651565</v>
       </c>
       <c r="AK26">
-        <v>0.6725390289449111</v>
+        <v>0.509448586618782</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>-218</v>
       </c>
       <c r="AN26">
-        <v>408.9761904761905</v>
+        <v>442.7142857142857</v>
       </c>
       <c r="AP26">
-        <v>362.3488311428355</v>
+        <v>324.0984392266934</v>
+      </c>
+      <c r="AQ26">
+        <v>-0</v>
       </c>
     </row>
     <row r="27">
@@ -3737,7 +3734,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Guotai Junan Securities Co., Ltd. (SHSE:601211)</t>
+          <t>Central China Securities Co., Ltd. (SEHK:1375)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3746,13 +3743,7 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.149</v>
-      </c>
-      <c r="E27">
-        <v>0.111</v>
-      </c>
-      <c r="F27">
-        <v>0.09</v>
+        <v>-0.09720000000000001</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3761,34 +3752,34 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0.007542656394611788</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0.005762216022387942</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1083.1</v>
+        <v>-21.4</v>
       </c>
       <c r="L27">
-        <v>0.304720909295521</v>
+        <v>-0.06336985490079952</v>
       </c>
       <c r="M27">
-        <v>907.6</v>
+        <v>2.75</v>
       </c>
       <c r="N27">
-        <v>0.04047286721456952</v>
+        <v>0.0006933938477054968</v>
       </c>
       <c r="O27">
-        <v>0.8379651001754225</v>
+        <v>-0.1285046728971963</v>
       </c>
       <c r="P27">
-        <v>907.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q27">
-        <v>0.04047286721456952</v>
+        <v>0.0006933938477054968</v>
       </c>
       <c r="R27">
-        <v>0.8379651001754225</v>
+        <v>-0.1285046728971963</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3797,67 +3788,61 @@
         <v>0</v>
       </c>
       <c r="U27">
-        <v>3698.9</v>
+        <v>510.2</v>
       </c>
       <c r="V27">
-        <v>0.1649461090127492</v>
+        <v>0.1286434694906707</v>
       </c>
       <c r="W27">
-        <v>0.06019998110239721</v>
+        <v>-0.01441562815762883</v>
       </c>
       <c r="X27">
-        <v>0.07182897229982455</v>
+        <v>0.04670322201678859</v>
       </c>
       <c r="Y27">
-        <v>-0.01162899119742734</v>
+        <v>-0.06111885017441741</v>
       </c>
       <c r="Z27">
-        <v>0.09246485347740382</v>
+        <v>0.07701816324110312</v>
       </c>
       <c r="AA27">
-        <v>0.0005328024602152498</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.04703359193351327</v>
+        <v>0.0337630779688734</v>
       </c>
       <c r="AC27">
-        <v>-0.04650078947329802</v>
+        <v>-0.0337630779688734</v>
       </c>
       <c r="AD27">
-        <v>30798.9</v>
+        <v>3491.4</v>
       </c>
       <c r="AE27">
-        <v>445.9519105549593</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>31244.85191055496</v>
+        <v>3491.4</v>
       </c>
       <c r="AG27">
-        <v>27545.95191055496</v>
+        <v>2981.2</v>
       </c>
       <c r="AH27">
-        <v>0.5821687412050472</v>
+        <v>0.4681792581864994</v>
       </c>
       <c r="AI27">
-        <v>0.6083445676250741</v>
+        <v>0.7008028904054596</v>
       </c>
       <c r="AJ27">
-        <v>0.5512403902951399</v>
+        <v>0.4291225241824044</v>
       </c>
       <c r="AK27">
-        <v>0.577949118447709</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
         <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>265.5077586206897</v>
-      </c>
-      <c r="AP27">
-        <v>237.4651026771979</v>
       </c>
     </row>
     <row r="28">
@@ -3868,7 +3853,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DONGXING SECURITIES Company Limited (SHSE:601198)</t>
+          <t>Guoyuan Securities Company Limited (SZSE:000728)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3877,10 +3862,10 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.105</v>
+        <v>-0.0551</v>
       </c>
       <c r="E28">
-        <v>0.09050000000000001</v>
+        <v>-0.134</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3889,34 +3874,34 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0.02451013348431665</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0.02061054370748605</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>187.1</v>
+        <v>190.7</v>
       </c>
       <c r="L28">
-        <v>0.3436179981634527</v>
+        <v>0.2940178846746839</v>
       </c>
       <c r="M28">
-        <v>261.8</v>
+        <v>241</v>
       </c>
       <c r="N28">
-        <v>0.0503006897611774</v>
+        <v>0.04024111272520831</v>
       </c>
       <c r="O28">
-        <v>1.399251737039017</v>
+        <v>1.263765076035658</v>
       </c>
       <c r="P28">
-        <v>261.8</v>
+        <v>241</v>
       </c>
       <c r="Q28">
-        <v>0.0503006897611774</v>
+        <v>0.04024111272520831</v>
       </c>
       <c r="R28">
-        <v>1.399251737039017</v>
+        <v>1.263765076035658</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3925,67 +3910,61 @@
         <v>0</v>
       </c>
       <c r="U28">
-        <v>373.8</v>
+        <v>439.1</v>
       </c>
       <c r="V28">
-        <v>0.07181970142371319</v>
+        <v>0.07331897343418659</v>
       </c>
       <c r="W28">
-        <v>0.06581076327822723</v>
+        <v>0.05473750681707282</v>
       </c>
       <c r="X28">
-        <v>0.07047724321901115</v>
+        <v>0.04760399294243427</v>
       </c>
       <c r="Y28">
-        <v>-0.004666479940783924</v>
+        <v>0.00713351387463855</v>
       </c>
       <c r="Z28">
-        <v>0.05638828433575651</v>
+        <v>0.08588225947406054</v>
       </c>
       <c r="AA28">
-        <v>0.001162193198892261</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>0.04771441110818117</v>
+        <v>0.0338236596488878</v>
       </c>
       <c r="AC28">
-        <v>-0.04655221790928891</v>
+        <v>-0.0338236596488878</v>
       </c>
       <c r="AD28">
-        <v>6837</v>
+        <v>5591.5</v>
       </c>
       <c r="AE28">
-        <v>50.2711615889479</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>6887.271161588948</v>
+        <v>5591.5</v>
       </c>
       <c r="AG28">
-        <v>6513.471161588947</v>
+        <v>5152.4</v>
       </c>
       <c r="AH28">
-        <v>0.5695738990402889</v>
+        <v>0.4828416980415184</v>
       </c>
       <c r="AI28">
-        <v>0.7086274176143819</v>
+        <v>0.6011460640333713</v>
       </c>
       <c r="AJ28">
-        <v>0.5558436612480527</v>
+        <v>0.4624594975451698</v>
       </c>
       <c r="AK28">
-        <v>0.6969729772061288</v>
+        <v>0.5813840650846845</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>292.1794871794872</v>
-      </c>
-      <c r="AP28">
-        <v>278.3534684439721</v>
       </c>
     </row>
     <row r="29">
@@ -3996,7 +3975,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Guosen Securities Co., Ltd. (SZSE:002736)</t>
+          <t>Southwest Securities Co., Ltd. (SHSE:600369)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4005,10 +3984,10 @@
         </is>
       </c>
       <c r="D29">
-        <v>0.09859999999999999</v>
+        <v>-0.147</v>
       </c>
       <c r="E29">
-        <v>0.112</v>
+        <v>-0.206</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4017,34 +3996,34 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0.007051375216145369</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.005519189160299511</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>731.2</v>
+        <v>165.3</v>
       </c>
       <c r="L29">
-        <v>0.3852476290832456</v>
+        <v>0.3226625024399766</v>
       </c>
       <c r="M29">
-        <v>584.8</v>
+        <v>212.7</v>
       </c>
       <c r="N29">
-        <v>0.03956778554368491</v>
+        <v>0.03884222059897735</v>
       </c>
       <c r="O29">
-        <v>0.7997811816192559</v>
+        <v>1.286751361161524</v>
       </c>
       <c r="P29">
-        <v>584.8</v>
+        <v>212.7</v>
       </c>
       <c r="Q29">
-        <v>0.03956778554368491</v>
+        <v>0.03884222059897735</v>
       </c>
       <c r="R29">
-        <v>0.7997811816192559</v>
+        <v>1.286751361161524</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4053,67 +4032,61 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>1083</v>
+        <v>1054.6</v>
       </c>
       <c r="V29">
-        <v>0.07327618287245342</v>
+        <v>0.1925858290723155</v>
       </c>
       <c r="W29">
-        <v>0.09651913354541496</v>
+        <v>0.06163081167741696</v>
       </c>
       <c r="X29">
-        <v>0.06379425646379874</v>
+        <v>0.04868722666328602</v>
       </c>
       <c r="Y29">
-        <v>0.03272487708161621</v>
+        <v>0.01294358501413093</v>
       </c>
       <c r="Z29">
-        <v>0.08741390608512163</v>
+        <v>0.07419798682018973</v>
       </c>
       <c r="AA29">
-        <v>0.0004824538829244429</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>0.0471242697466325</v>
+        <v>0.0338922308693638</v>
       </c>
       <c r="AC29">
-        <v>-0.04664181586370806</v>
+        <v>-0.0338922308693638</v>
       </c>
       <c r="AD29">
-        <v>14390.3</v>
+        <v>5463.7</v>
       </c>
       <c r="AE29">
-        <v>50.08244919878044</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>14440.38244919878</v>
+        <v>5463.7</v>
       </c>
       <c r="AG29">
-        <v>13357.38244919878</v>
+        <v>4409.1</v>
       </c>
       <c r="AH29">
-        <v>0.4941937612361096</v>
+        <v>0.4994378273627247</v>
       </c>
       <c r="AI29">
-        <v>0.6525345531888372</v>
+        <v>0.600538579907672</v>
       </c>
       <c r="AJ29">
-        <v>0.474725212655413</v>
+        <v>0.4460349414775774</v>
       </c>
       <c r="AK29">
-        <v>0.6346550094742974</v>
+        <v>0.5481637118631425</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29">
         <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>614.9700854700855</v>
-      </c>
-      <c r="AP29">
-        <v>570.8283097948197</v>
       </c>
     </row>
     <row r="30">
@@ -4124,7 +4097,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Zheshang Securities Co., Ltd. (SHSE:601878)</t>
+          <t>Hongta Securities Co., Ltd. (SHSE:601236)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4132,12 +4105,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D30">
-        <v>0.117</v>
-      </c>
-      <c r="E30">
-        <v>0.07580000000000001</v>
-      </c>
       <c r="G30">
         <v>0</v>
       </c>
@@ -4145,34 +4112,34 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0.002999237192505364</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>0.00222292175382213</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>123.7</v>
+        <v>181.4</v>
       </c>
       <c r="L30">
-        <v>0.171305913308406</v>
+        <v>0.2973283068349451</v>
       </c>
       <c r="M30">
-        <v>120.3</v>
+        <v>144.2</v>
       </c>
       <c r="N30">
-        <v>0.022577981307008</v>
+        <v>0.01393775372124492</v>
       </c>
       <c r="O30">
-        <v>0.9725141471301536</v>
+        <v>0.794928335170893</v>
       </c>
       <c r="P30">
-        <v>120.3</v>
+        <v>144.2</v>
       </c>
       <c r="Q30">
-        <v>0.022577981307008</v>
+        <v>0.01393775372124492</v>
       </c>
       <c r="R30">
-        <v>0.9725141471301536</v>
+        <v>0.794928335170893</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -4181,67 +4148,61 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>770</v>
+        <v>383</v>
       </c>
       <c r="V30">
-        <v>0.1445140948162607</v>
+        <v>0.03701913783104582</v>
       </c>
       <c r="W30">
-        <v>0.06248105869279726</v>
+        <v>0.09920157497539102</v>
       </c>
       <c r="X30">
-        <v>0.06178499449826021</v>
+        <v>0.03684373155854411</v>
       </c>
       <c r="Y30">
-        <v>0.0006960641945370494</v>
+        <v>0.06235784341684691</v>
       </c>
       <c r="Z30">
-        <v>0.137851874987867</v>
+        <v>0.1248593004932158</v>
       </c>
       <c r="AA30">
-        <v>0.0003064339317156984</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>0.04699976900714703</v>
+        <v>0.03390728173671002</v>
       </c>
       <c r="AC30">
-        <v>-0.04669333507543133</v>
+        <v>-0.03390728173671002</v>
       </c>
       <c r="AD30">
-        <v>4622.5</v>
+        <v>3070.8</v>
       </c>
       <c r="AE30">
-        <v>28.72125411645938</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>4651.221254116459</v>
+        <v>3070.8</v>
       </c>
       <c r="AG30">
-        <v>3881.221254116459</v>
+        <v>2687.8</v>
       </c>
       <c r="AH30">
-        <v>0.4660812621972296</v>
+        <v>0.2288772285492815</v>
       </c>
       <c r="AI30">
-        <v>0.6937232851046232</v>
+        <v>0.5949663844380292</v>
       </c>
       <c r="AJ30">
-        <v>0.421440299777971</v>
+        <v>0.2062176801853642</v>
       </c>
       <c r="AK30">
-        <v>0.653985433843983</v>
+        <v>0.5625013079965678</v>
       </c>
       <c r="AL30">
         <v>0</v>
       </c>
       <c r="AM30">
         <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>584.3868520859671</v>
-      </c>
-      <c r="AP30">
-        <v>490.6727249199063</v>
       </c>
     </row>
     <row r="31">
@@ -4252,7 +4213,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HUAXI Securities Co., Ltd. (SZSE:002926)</t>
+          <t>Nanjing Securities Co., Ltd. (SHSE:601990)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4267,34 +4228,34 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <v>0.004958583953968011</v>
+        <v>0.007021815836378455</v>
       </c>
       <c r="J31">
-        <v>0.003788032987785399</v>
+        <v>0.00546246878537498</v>
       </c>
       <c r="K31">
-        <v>162.6</v>
+        <v>113.9</v>
       </c>
       <c r="L31">
-        <v>0.3481053307642903</v>
+        <v>0.3189582749929992</v>
       </c>
       <c r="M31">
-        <v>84.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="N31">
-        <v>0.02040619654516106</v>
+        <v>0.01348113507115846</v>
       </c>
       <c r="O31">
-        <v>0.5209102091020911</v>
+        <v>0.820017559262511</v>
       </c>
       <c r="P31">
-        <v>84.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="Q31">
-        <v>0.02040619654516106</v>
+        <v>0.01348113507115846</v>
       </c>
       <c r="R31">
-        <v>0.5209102091020911</v>
+        <v>0.820017559262511</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4303,55 +4264,55 @@
         <v>0</v>
       </c>
       <c r="U31">
-        <v>367.9</v>
+        <v>119.4</v>
       </c>
       <c r="V31">
-        <v>0.08863565181776567</v>
+        <v>0.01723391357062441</v>
       </c>
       <c r="W31">
-        <v>0.0610222922765143</v>
+        <v>0.07396584193778817</v>
       </c>
       <c r="X31">
-        <v>0.06277754002376275</v>
+        <v>0.03906792106533737</v>
       </c>
       <c r="Y31">
-        <v>-0.001755247747248452</v>
+        <v>0.0348979208724508</v>
       </c>
       <c r="Z31">
-        <v>0.09551211206550268</v>
+        <v>0.1065924156114188</v>
       </c>
       <c r="AA31">
-        <v>0.00036180303123718</v>
+        <v>0.0005822577430350918</v>
       </c>
       <c r="AB31">
-        <v>0.04706295397499022</v>
+        <v>0.03455264535995594</v>
       </c>
       <c r="AC31">
-        <v>-0.04670115094375304</v>
+        <v>-0.03397038761692085</v>
       </c>
       <c r="AD31">
-        <v>3821.2</v>
+        <v>2955.3</v>
       </c>
       <c r="AE31">
-        <v>15.56922717550771</v>
+        <v>13.06254782414627</v>
       </c>
       <c r="AF31">
-        <v>3836.769227175508</v>
+        <v>2968.362547824147</v>
       </c>
       <c r="AG31">
-        <v>3468.869227175508</v>
+        <v>2848.962547824146</v>
       </c>
       <c r="AH31">
-        <v>0.4803485457097966</v>
+        <v>0.299938744738876</v>
       </c>
       <c r="AI31">
-        <v>0.5855366184096541</v>
+        <v>0.6366785476741257</v>
       </c>
       <c r="AJ31">
-        <v>0.4552579186240139</v>
+        <v>0.2913895042542959</v>
       </c>
       <c r="AK31">
-        <v>0.5608819323648315</v>
+        <v>0.6271293744488677</v>
       </c>
       <c r="AL31">
         <v>0</v>
@@ -4360,10 +4321,10 @@
         <v>0</v>
       </c>
       <c r="AN31">
-        <v>703.720073664825</v>
+        <v>577.20703125</v>
       </c>
       <c r="AP31">
-        <v>638.8341118186938</v>
+        <v>556.4379976219036</v>
       </c>
     </row>
     <row r="32">
@@ -4374,7 +4335,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Everbright Securities Company Limited (SHSE:601788)</t>
+          <t>Northeast Securities Co., Ltd. (SZSE:000686)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4383,10 +4344,10 @@
         </is>
       </c>
       <c r="D32">
-        <v>0.174</v>
+        <v>0.00929</v>
       </c>
       <c r="E32">
-        <v>0.15</v>
+        <v>-0.162</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -4395,34 +4356,34 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0.01715984476902308</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0.01309696810438364</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>167</v>
+        <v>163.7</v>
       </c>
       <c r="L32">
-        <v>0.1180295427238674</v>
+        <v>0.1697428452924098</v>
       </c>
       <c r="M32">
-        <v>653.8</v>
+        <v>197.4</v>
       </c>
       <c r="N32">
-        <v>0.08247968915577533</v>
+        <v>0.05607317350301102</v>
       </c>
       <c r="O32">
-        <v>3.914970059880239</v>
+        <v>1.205864386072083</v>
       </c>
       <c r="P32">
-        <v>653.8</v>
+        <v>197.4</v>
       </c>
       <c r="Q32">
-        <v>0.08247968915577533</v>
+        <v>0.05607317350301102</v>
       </c>
       <c r="R32">
-        <v>3.914970059880239</v>
+        <v>1.205864386072083</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4431,67 +4392,61 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>2945.2</v>
+        <v>762.2</v>
       </c>
       <c r="V32">
-        <v>0.3715496795680476</v>
+        <v>0.216509487558232</v>
       </c>
       <c r="W32">
-        <v>0.02351350970812272</v>
+        <v>0.07548648897906483</v>
       </c>
       <c r="X32">
-        <v>0.07743800858584679</v>
+        <v>0.05424087718441185</v>
       </c>
       <c r="Y32">
-        <v>-0.05392449887772408</v>
+        <v>0.02124561179465298</v>
       </c>
       <c r="Z32">
-        <v>0.07239449896462849</v>
+        <v>0.1556462936363196</v>
       </c>
       <c r="AA32">
-        <v>0.0009481484438725736</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>0.04771423493404637</v>
+        <v>0.03418443265473376</v>
       </c>
       <c r="AC32">
-        <v>-0.0467660864901738</v>
+        <v>-0.03418443265473376</v>
       </c>
       <c r="AD32">
-        <v>13228.9</v>
+        <v>4669.6</v>
       </c>
       <c r="AE32">
-        <v>119.1026781815462</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>13348.00267818154</v>
+        <v>4669.6</v>
       </c>
       <c r="AG32">
-        <v>10402.80267818155</v>
+        <v>3907.400000000001</v>
       </c>
       <c r="AH32">
-        <v>0.6274090002193364</v>
+        <v>0.5701587301587302</v>
       </c>
       <c r="AI32">
-        <v>0.6524906355131821</v>
+        <v>0.6512146821744346</v>
       </c>
       <c r="AJ32">
-        <v>0.567541089723915</v>
+        <v>0.5260507821966127</v>
       </c>
       <c r="AK32">
-        <v>0.5940452202069805</v>
+        <v>0.6097309780912553</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32">
         <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>275.029106029106</v>
-      </c>
-      <c r="AP32">
-        <v>216.2744839538783</v>
       </c>
     </row>
     <row r="33">
@@ -4502,7 +4457,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hongta Securities Co., Ltd. (SHSE:601236)</t>
+          <t>Guolian Securities Co., Ltd. (SEHK:1456)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4510,6 +4465,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D33">
+        <v>-0.117</v>
+      </c>
+      <c r="E33">
+        <v>-0.2</v>
+      </c>
       <c r="G33">
         <v>0</v>
       </c>
@@ -4523,28 +4484,28 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>95.09999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="L33">
-        <v>0.4012658227848101</v>
+        <v>0.2805872756933116</v>
       </c>
       <c r="M33">
-        <v>48.8</v>
+        <v>13.5</v>
       </c>
       <c r="N33">
-        <v>0.005576505542223746</v>
+        <v>0.002062107626743245</v>
       </c>
       <c r="O33">
-        <v>0.5131440588853838</v>
+        <v>0.1962209302325582</v>
       </c>
       <c r="P33">
-        <v>48.8</v>
+        <v>13.5</v>
       </c>
       <c r="Q33">
-        <v>0.005576505542223746</v>
+        <v>0.002062107626743245</v>
       </c>
       <c r="R33">
-        <v>0.5131440588853838</v>
+        <v>0.1962209302325582</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4553,55 +4514,55 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>229</v>
+        <v>264.2</v>
       </c>
       <c r="V33">
-        <v>0.02616843789281225</v>
+        <v>0.04035620999893076</v>
       </c>
       <c r="W33">
-        <v>0.05854108956602031</v>
+        <v>0.0597896932302077</v>
       </c>
       <c r="X33">
-        <v>0.0521849990203648</v>
+        <v>0.03795319554355407</v>
       </c>
       <c r="Y33">
-        <v>0.006356090545655509</v>
+        <v>0.02183649768665363</v>
       </c>
       <c r="Z33">
-        <v>0.1427968910043984</v>
+        <v>0.1368532678461796</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.0469229741122423</v>
+        <v>0.03424478816839639</v>
       </c>
       <c r="AC33">
-        <v>-0.0469229741122423</v>
+        <v>-0.03424478816839639</v>
       </c>
       <c r="AD33">
-        <v>3286.7</v>
+        <v>2373</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>3286.7</v>
+        <v>2373</v>
       </c>
       <c r="AG33">
-        <v>3057.7</v>
+        <v>2108.8</v>
       </c>
       <c r="AH33">
-        <v>0.2730338852106299</v>
+        <v>0.2660403376795183</v>
       </c>
       <c r="AI33">
-        <v>0.6383429148539466</v>
+        <v>0.6664794270467631</v>
       </c>
       <c r="AJ33">
-        <v>0.258936208049997</v>
+        <v>0.2436369938189591</v>
       </c>
       <c r="AK33">
-        <v>0.6215090044310745</v>
+        <v>0.6397475957892182</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -4618,7 +4579,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Huatai Securities Co., Ltd. (SHSE:601688)</t>
+          <t>Changjiang Securities Company Limited (SZSE:000783)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4627,49 +4588,46 @@
         </is>
       </c>
       <c r="D34">
-        <v>0.187</v>
+        <v>-0.0175</v>
       </c>
       <c r="E34">
-        <v>0.184</v>
-      </c>
-      <c r="F34">
-        <v>0.161</v>
+        <v>-0.102</v>
       </c>
       <c r="G34">
-        <v>0.003435491003095343</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0.008676058130253536</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0.006732964850394065</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>978.4</v>
+        <v>314.4</v>
       </c>
       <c r="L34">
-        <v>0.3328004353889588</v>
+        <v>0.2772975833480332</v>
       </c>
       <c r="M34">
-        <v>1241</v>
+        <v>313.9</v>
       </c>
       <c r="N34">
-        <v>0.0506478930721355</v>
+        <v>0.04412054085964073</v>
       </c>
       <c r="O34">
-        <v>1.268397383483238</v>
+        <v>0.9984096692111959</v>
       </c>
       <c r="P34">
-        <v>1241</v>
+        <v>313.9</v>
       </c>
       <c r="Q34">
-        <v>0.0506478930721355</v>
+        <v>0.04412054085964073</v>
       </c>
       <c r="R34">
-        <v>1.268397383483238</v>
+        <v>0.9984096692111959</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4678,67 +4636,61 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>6498.7</v>
+        <v>1418.8</v>
       </c>
       <c r="V34">
-        <v>0.2652259973472095</v>
+        <v>0.1994209091164647</v>
       </c>
       <c r="W34">
-        <v>0.06325603046426978</v>
+        <v>0.08085587902479167</v>
       </c>
       <c r="X34">
-        <v>0.06919638293434724</v>
+        <v>0.05583754709646117</v>
       </c>
       <c r="Y34">
-        <v>-0.005940352470077459</v>
+        <v>0.0250183319283305</v>
       </c>
       <c r="Z34">
-        <v>0.09911211977831752</v>
+        <v>0.1176702575917969</v>
       </c>
       <c r="AA34">
-        <v>0.0006673184187154583</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>0.04765266799221998</v>
+        <v>0.0342537557433095</v>
       </c>
       <c r="AC34">
-        <v>-0.04698534957350452</v>
+        <v>-0.0342537557433095</v>
       </c>
       <c r="AD34">
-        <v>30688.7</v>
+        <v>10109.4</v>
       </c>
       <c r="AE34">
-        <v>108.9662835143381</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>30797.66628351434</v>
+        <v>10109.4</v>
       </c>
       <c r="AG34">
-        <v>24298.96628351434</v>
+        <v>8690.6</v>
       </c>
       <c r="AH34">
-        <v>0.5569181496782498</v>
+        <v>0.5869368323269856</v>
       </c>
       <c r="AI34">
-        <v>0.6414527895095459</v>
+        <v>0.7021733241649476</v>
       </c>
       <c r="AJ34">
-        <v>0.4979146762178904</v>
+        <v>0.5498570090856174</v>
       </c>
       <c r="AK34">
-        <v>0.5853245077793527</v>
+        <v>0.6696151327194977</v>
       </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34">
         <v>0</v>
-      </c>
-      <c r="AN34">
-        <v>648.8097251585624</v>
-      </c>
-      <c r="AP34">
-        <v>513.7202174104511</v>
       </c>
     </row>
     <row r="35">
@@ -4749,7 +4701,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Soochow Securities Co., Ltd. (SHSE:601555)</t>
+          <t>GF Securities Co., Ltd. (SZSE:000776)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4758,10 +4710,13 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.153</v>
+        <v>-0.0384</v>
       </c>
       <c r="E35">
-        <v>0.0518</v>
+        <v>-0.0404</v>
+      </c>
+      <c r="F35">
+        <v>0.209</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4770,34 +4725,34 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.009616257948280702</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0.007554556322436482</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>152.8</v>
+        <v>1481.9</v>
       </c>
       <c r="L35">
-        <v>0.2163386662891123</v>
+        <v>0.3916847280224137</v>
       </c>
       <c r="M35">
-        <v>279.4</v>
+        <v>1294.2</v>
       </c>
       <c r="N35">
-        <v>0.06491334045815715</v>
+        <v>0.07539234076266151</v>
       </c>
       <c r="O35">
-        <v>1.828534031413612</v>
+        <v>0.8733382819353532</v>
       </c>
       <c r="P35">
-        <v>279.4</v>
+        <v>1294.2</v>
       </c>
       <c r="Q35">
-        <v>0.06491334045815715</v>
+        <v>0.07539234076266151</v>
       </c>
       <c r="R35">
-        <v>1.828534031413612</v>
+        <v>0.8733382819353532</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4806,67 +4761,61 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>387.8</v>
+        <v>3584.8</v>
       </c>
       <c r="V35">
-        <v>0.09009804377120023</v>
+        <v>0.2088289778751267</v>
       </c>
       <c r="W35">
-        <v>0.05138725407768623</v>
+        <v>0.115865768033902</v>
       </c>
       <c r="X35">
-        <v>0.07481716116696742</v>
+        <v>0.06348912330720087</v>
       </c>
       <c r="Y35">
-        <v>-0.02342990708928119</v>
+        <v>0.05237664472670116</v>
       </c>
       <c r="Z35">
-        <v>0.08364875628524251</v>
+        <v>0.1036844170164561</v>
       </c>
       <c r="AA35">
-        <v>0.0006319292406586273</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>0.04762630649364241</v>
+        <v>0.0345226930215122</v>
       </c>
       <c r="AC35">
-        <v>-0.04699437725298378</v>
+        <v>-0.0345226930215122</v>
       </c>
       <c r="AD35">
-        <v>6639.9</v>
+        <v>32165.8</v>
       </c>
       <c r="AE35">
-        <v>23.54018505564671</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>6663.440185055646</v>
+        <v>32165.8</v>
       </c>
       <c r="AG35">
-        <v>6275.640185055646</v>
+        <v>28581</v>
       </c>
       <c r="AH35">
-        <v>0.6075545944819704</v>
+        <v>0.6520270818130219</v>
       </c>
       <c r="AI35">
-        <v>0.693383176005633</v>
+        <v>0.6875443531493942</v>
       </c>
       <c r="AJ35">
-        <v>0.5931696580748151</v>
+        <v>0.6247595481253498</v>
       </c>
       <c r="AK35">
-        <v>0.6804897789612037</v>
+        <v>0.6616156004333453</v>
       </c>
       <c r="AL35">
         <v>0</v>
       </c>
       <c r="AM35">
         <v>0</v>
-      </c>
-      <c r="AN35">
-        <v>577.3826086956522</v>
-      </c>
-      <c r="AP35">
-        <v>545.7078421787518</v>
       </c>
     </row>
     <row r="36">
@@ -4877,7 +4826,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sealand Securities Co., Ltd. (SZSE:000750)</t>
+          <t>Shenwan Hongyuan Group Co., Ltd. (SZSE:000166)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4886,10 +4835,10 @@
         </is>
       </c>
       <c r="D36">
-        <v>0.08310000000000001</v>
+        <v>0.0166</v>
       </c>
       <c r="E36">
-        <v>0.0157</v>
+        <v>-0.0408</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -4898,103 +4847,97 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0.01697731355664139</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>0.01272900735268333</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>73.8</v>
+        <v>1105.6</v>
       </c>
       <c r="L36">
-        <v>0.1687628630230963</v>
+        <v>0.2567043581230119</v>
       </c>
       <c r="M36">
-        <v>119.9</v>
+        <v>997.4</v>
       </c>
       <c r="N36">
-        <v>0.03708629755644912</v>
+        <v>0.05265297288166014</v>
       </c>
       <c r="O36">
-        <v>1.624661246612466</v>
+        <v>0.9021345875542692</v>
       </c>
       <c r="P36">
-        <v>119.9</v>
+        <v>981.6</v>
       </c>
       <c r="Q36">
-        <v>0.03708629755644912</v>
+        <v>0.05181888728758532</v>
       </c>
       <c r="R36">
-        <v>1.624661246612466</v>
+        <v>0.8878437047756875</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>15.79999999999995</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>0.01584118708642466</v>
       </c>
       <c r="U36">
-        <v>305.9</v>
+        <v>3450.3</v>
       </c>
       <c r="V36">
-        <v>0.09461800185586142</v>
+        <v>0.182142121850403</v>
       </c>
       <c r="W36">
-        <v>0.03726708074534162</v>
+        <v>0.09633095468367443</v>
       </c>
       <c r="X36">
-        <v>0.07902730795988247</v>
+        <v>0.06632286218883887</v>
       </c>
       <c r="Y36">
-        <v>-0.04176022721454085</v>
+        <v>0.03000809249483556</v>
       </c>
       <c r="Z36">
-        <v>0.05912208553419482</v>
+        <v>0.1213559952437038</v>
       </c>
       <c r="AA36">
-        <v>0.0007525654614707383</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>0.04776335093687174</v>
+        <v>0.03460197160156128</v>
       </c>
       <c r="AC36">
-        <v>-0.047010785475401</v>
+        <v>-0.03460197160156128</v>
       </c>
       <c r="AD36">
-        <v>5685.4</v>
+        <v>38671.9</v>
       </c>
       <c r="AE36">
-        <v>24.87910390840361</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>5710.279103908403</v>
+        <v>38671.9</v>
       </c>
       <c r="AG36">
-        <v>5404.379103908404</v>
+        <v>35221.6</v>
       </c>
       <c r="AH36">
-        <v>0.638499485207041</v>
+        <v>0.6712146878926942</v>
       </c>
       <c r="AI36">
-        <v>0.7370023882779835</v>
+        <v>0.7470679939495681</v>
       </c>
       <c r="AJ36">
-        <v>0.6256966423371332</v>
+        <v>0.6502709339142796</v>
       </c>
       <c r="AK36">
-        <v>0.7261921068630072</v>
+        <v>0.7290053110239969</v>
       </c>
       <c r="AL36">
         <v>0</v>
       </c>
       <c r="AM36">
         <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>458.4999999999999</v>
-      </c>
-      <c r="AP36">
-        <v>435.8370245087422</v>
       </c>
     </row>
     <row r="37">
@@ -5005,7 +4948,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Caitong Securities Co.,Ltd. (SHSE:601108)</t>
+          <t>Sinolink Securities Co., Ltd. (SHSE:600109)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5014,46 +4957,46 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.0679</v>
+        <v>0.0146</v>
       </c>
       <c r="E37">
-        <v>0.171</v>
+        <v>0.00152</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>0.009761508596783141</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>-0.006257904449180864</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>-0.005393237006471465</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>159.6</v>
+        <v>292.5</v>
       </c>
       <c r="L37">
-        <v>0.2756476683937824</v>
+        <v>0.324459234608985</v>
       </c>
       <c r="M37">
-        <v>193.5</v>
+        <v>77.3</v>
       </c>
       <c r="N37">
-        <v>0.0331046517595935</v>
+        <v>0.0102560700543983</v>
       </c>
       <c r="O37">
-        <v>1.212406015037594</v>
+        <v>0.2642735042735043</v>
       </c>
       <c r="P37">
-        <v>193.5</v>
+        <v>77.3</v>
       </c>
       <c r="Q37">
-        <v>0.0331046517595935</v>
+        <v>0.0102560700543983</v>
       </c>
       <c r="R37">
-        <v>1.212406015037594</v>
+        <v>0.2642735042735043</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -5062,67 +5005,61 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>284.8</v>
+        <v>568</v>
       </c>
       <c r="V37">
-        <v>0.04872457271902961</v>
+        <v>0.07536154968820485</v>
       </c>
       <c r="W37">
-        <v>0.05458089668615984</v>
+        <v>0.1029023746701847</v>
       </c>
       <c r="X37">
-        <v>0.0569131487703847</v>
+        <v>0.03935173228638732</v>
       </c>
       <c r="Y37">
-        <v>-0.002332252084224856</v>
+        <v>0.06355064238379737</v>
       </c>
       <c r="Z37">
-        <v>0.08237048738125981</v>
+        <v>0.2279566085923079</v>
       </c>
       <c r="AA37">
-        <v>-0.0004442435607857012</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>0.04663148315379247</v>
+        <v>0.03462653740975291</v>
       </c>
       <c r="AC37">
-        <v>-0.04707572671457817</v>
+        <v>-0.03462653740975291</v>
       </c>
       <c r="AD37">
-        <v>3525</v>
+        <v>3355.8</v>
       </c>
       <c r="AE37">
-        <v>102.1166333803786</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>3627.116633380379</v>
+        <v>3355.8</v>
       </c>
       <c r="AG37">
-        <v>3342.316633380378</v>
+        <v>2787.8</v>
       </c>
       <c r="AH37">
-        <v>0.3829216300436277</v>
+        <v>0.3080750587544066</v>
       </c>
       <c r="AI37">
-        <v>0.5587643983854695</v>
+        <v>0.5070486378677304</v>
       </c>
       <c r="AJ37">
-        <v>0.3637928665645612</v>
+        <v>0.2700100728343406</v>
       </c>
       <c r="AK37">
-        <v>0.5385173086308135</v>
+        <v>0.4607705403037866</v>
       </c>
       <c r="AL37">
         <v>0</v>
       </c>
       <c r="AM37">
         <v>0</v>
-      </c>
-      <c r="AN37">
-        <v>209.8214285714286</v>
-      </c>
-      <c r="AP37">
-        <v>198.9474186535939</v>
       </c>
     </row>
     <row r="38">
@@ -5133,7 +5070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Minmetals Capital Company Limited (SHSE:600390)</t>
+          <t>China Galaxy Securities Co., Ltd. (SEHK:6881)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5142,46 +5079,49 @@
         </is>
       </c>
       <c r="D38">
-        <v>0.5820000000000001</v>
+        <v>-0.00506</v>
       </c>
       <c r="E38">
-        <v>1.861</v>
+        <v>-0.0475</v>
+      </c>
+      <c r="F38">
+        <v>0.284</v>
       </c>
       <c r="G38">
-        <v>0.0003302107728337236</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0.004252068707208545</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0.003301819441316068</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>448.9</v>
+        <v>1033.6</v>
       </c>
       <c r="L38">
-        <v>0.2628220140515222</v>
+        <v>0.2992645781458104</v>
       </c>
       <c r="M38">
-        <v>281.5</v>
+        <v>286.7</v>
       </c>
       <c r="N38">
-        <v>0.05275487256371814</v>
+        <v>0.01954874913915955</v>
       </c>
       <c r="O38">
-        <v>0.62708843840499</v>
+        <v>0.2773800309597523</v>
       </c>
       <c r="P38">
-        <v>281.5</v>
+        <v>286.7</v>
       </c>
       <c r="Q38">
-        <v>0.05275487256371814</v>
+        <v>0.01954874913915955</v>
       </c>
       <c r="R38">
-        <v>0.62708843840499</v>
+        <v>0.2773800309597523</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -5190,70 +5130,61 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>1697.4</v>
+        <v>2040.4</v>
       </c>
       <c r="V38">
-        <v>0.3181034482758621</v>
+        <v>0.1391254542851104</v>
       </c>
       <c r="W38">
-        <v>0.09389838308197544</v>
+        <v>0.1063144793820265</v>
       </c>
       <c r="X38">
-        <v>0.07307722522798318</v>
+        <v>0.07014526882080144</v>
       </c>
       <c r="Y38">
-        <v>0.02082115785399226</v>
+        <v>0.03616921056122506</v>
       </c>
       <c r="Z38">
-        <v>0.1448011389225731</v>
+        <v>0.1240745064932732</v>
       </c>
       <c r="AA38">
-        <v>0.0004781072156192607</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>0.04756256679794434</v>
+        <v>0.03469601801288364</v>
       </c>
       <c r="AC38">
-        <v>-0.04708445958232508</v>
+        <v>-0.03469601801288364</v>
       </c>
       <c r="AD38">
-        <v>7753.1</v>
+        <v>33258.2</v>
       </c>
       <c r="AE38">
-        <v>26.68733324043903</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>7779.78733324044</v>
+        <v>33258.2</v>
       </c>
       <c r="AG38">
-        <v>6082.38733324044</v>
+        <v>31217.8</v>
       </c>
       <c r="AH38">
-        <v>0.5931620523857895</v>
+        <v>0.693976517034227</v>
       </c>
       <c r="AI38">
-        <v>0.5935014342806013</v>
+        <v>0.7503107663916582</v>
       </c>
       <c r="AJ38">
-        <v>0.5326835704315095</v>
+        <v>0.6803679738120508</v>
       </c>
       <c r="AK38">
-        <v>0.5330336857785078</v>
+        <v>0.7382625249790116</v>
       </c>
       <c r="AL38">
         <v>0</v>
       </c>
       <c r="AM38">
-        <v>-219.6</v>
-      </c>
-      <c r="AN38">
-        <v>615.3253968253969</v>
-      </c>
-      <c r="AP38">
-        <v>482.729153431781</v>
-      </c>
-      <c r="AQ38">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5264,7 +5195,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Central China Securities Co., Ltd. (SEHK:1375)</t>
+          <t>China Great Wall Securities Co., Ltd. (SZSE:002939)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5273,10 +5204,10 @@
         </is>
       </c>
       <c r="D39">
-        <v>0.103</v>
+        <v>0.0553</v>
       </c>
       <c r="E39">
-        <v>-0.117</v>
+        <v>-0.0473</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5285,34 +5216,34 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0.007187902050137231</v>
+        <v>0.009346163232839422</v>
       </c>
       <c r="J39">
-        <v>0.006461012800559972</v>
+        <v>0.00782616048572948</v>
       </c>
       <c r="K39">
-        <v>23.3</v>
+        <v>206.6</v>
       </c>
       <c r="L39">
-        <v>0.07448849104859336</v>
+        <v>0.2307348670985035</v>
       </c>
       <c r="M39">
-        <v>5.63</v>
+        <v>130.2</v>
       </c>
       <c r="N39">
-        <v>0.002405366145432795</v>
+        <v>0.02128216025368596</v>
       </c>
       <c r="O39">
-        <v>0.2416309012875536</v>
+        <v>0.6302032913843175</v>
       </c>
       <c r="P39">
-        <v>5.63</v>
+        <v>130.2</v>
       </c>
       <c r="Q39">
-        <v>0.002405366145432795</v>
+        <v>0.02128216025368596</v>
       </c>
       <c r="R39">
-        <v>0.2416309012875536</v>
+        <v>0.6302032913843175</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -5321,55 +5252,55 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>341.8</v>
+        <v>261.4</v>
       </c>
       <c r="V39">
-        <v>0.1460309322395967</v>
+        <v>0.04272777795939717</v>
       </c>
       <c r="W39">
-        <v>0.01534611078179543</v>
+        <v>0.08857069364657463</v>
       </c>
       <c r="X39">
-        <v>0.071848971879423</v>
+        <v>0.04662162852171728</v>
       </c>
       <c r="Y39">
-        <v>-0.05650286109762757</v>
+        <v>0.04194906512485735</v>
       </c>
       <c r="Z39">
-        <v>0.06147849344456086</v>
+        <v>0.1494431209088258</v>
       </c>
       <c r="AA39">
-        <v>0.00039721333310445</v>
+        <v>0.001169565847720746</v>
       </c>
       <c r="AB39">
-        <v>0.04751468192048074</v>
+        <v>0.0360681294324131</v>
       </c>
       <c r="AC39">
-        <v>-0.04711746858737629</v>
+        <v>-0.03489856358469236</v>
       </c>
       <c r="AD39">
-        <v>3245.2</v>
+        <v>5296</v>
       </c>
       <c r="AE39">
-        <v>18.40812119358537</v>
+        <v>60.1572272065779</v>
       </c>
       <c r="AF39">
-        <v>3263.608121193585</v>
+        <v>5356.157227206578</v>
       </c>
       <c r="AG39">
-        <v>2921.808121193585</v>
+        <v>5094.757227206578</v>
       </c>
       <c r="AH39">
-        <v>0.5823495577995239</v>
+        <v>0.4668099349809564</v>
       </c>
       <c r="AI39">
-        <v>0.6599536442575189</v>
+        <v>0.6661176881842641</v>
       </c>
       <c r="AJ39">
-        <v>0.555222638363305</v>
+        <v>0.4543795963729366</v>
       </c>
       <c r="AK39">
-        <v>0.6347054278637391</v>
+        <v>0.6548988031438778</v>
       </c>
       <c r="AL39">
         <v>0</v>
@@ -5378,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="AN39">
-        <v>547.2512647554806</v>
+        <v>259.6078431372549</v>
       </c>
       <c r="AP39">
-        <v>492.7163779415827</v>
+        <v>249.7430013336558</v>
       </c>
     </row>
     <row r="40">
@@ -5392,7 +5323,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Guoyuan Securities Company Limited (SZSE:000728)</t>
+          <t>Zheshang Securities Co., Ltd. (SHSE:601878)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5401,10 +5332,10 @@
         </is>
       </c>
       <c r="D40">
-        <v>0.0241</v>
+        <v>0.0882</v>
       </c>
       <c r="E40">
-        <v>-0.00746</v>
+        <v>-0.05110000000000001</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5413,34 +5344,34 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.001864811026692606</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>0.001396580500022062</v>
       </c>
       <c r="K40">
-        <v>145.8</v>
+        <v>189.4</v>
       </c>
       <c r="L40">
-        <v>0.3326488706365503</v>
+        <v>0.1500792393026942</v>
       </c>
       <c r="M40">
-        <v>178.6</v>
+        <v>172.9</v>
       </c>
       <c r="N40">
-        <v>0.039860732937553</v>
+        <v>0.02041418721073014</v>
       </c>
       <c r="O40">
-        <v>1.224965706447188</v>
+        <v>0.912882787750792</v>
       </c>
       <c r="P40">
-        <v>178.6</v>
+        <v>172.9</v>
       </c>
       <c r="Q40">
-        <v>0.039860732937553</v>
+        <v>0.02041418721073014</v>
       </c>
       <c r="R40">
-        <v>1.224965706447188</v>
+        <v>0.912882787750792</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -5449,61 +5380,67 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>396.2</v>
+        <v>812</v>
       </c>
       <c r="V40">
-        <v>0.08842565727804311</v>
+        <v>0.09587229621233588</v>
       </c>
       <c r="W40">
-        <v>0.04020405349510547</v>
+        <v>0.09223277331385439</v>
       </c>
       <c r="X40">
-        <v>0.06424083886975729</v>
+        <v>0.04267662878813079</v>
       </c>
       <c r="Y40">
-        <v>-0.02403678537465181</v>
+        <v>0.0495561445257236</v>
       </c>
       <c r="Z40">
-        <v>0.05995649973325308</v>
+        <v>0.2127012999516243</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>0.000297054487841782</v>
       </c>
       <c r="AB40">
-        <v>0.04715018127613009</v>
+        <v>0.03537959960717639</v>
       </c>
       <c r="AC40">
-        <v>-0.04715018127613009</v>
+        <v>-0.03508254511933461</v>
       </c>
       <c r="AD40">
-        <v>4481.4</v>
+        <v>5407.7</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>29.98304242156966</v>
       </c>
       <c r="AF40">
-        <v>4481.4</v>
+        <v>5437.68304242157</v>
       </c>
       <c r="AG40">
-        <v>4085.2</v>
+        <v>4625.68304242157</v>
       </c>
       <c r="AH40">
-        <v>0.5000446328944431</v>
+        <v>0.3909953529984924</v>
       </c>
       <c r="AI40">
-        <v>0.5625023534875547</v>
+        <v>0.6632224187473627</v>
       </c>
       <c r="AJ40">
-        <v>0.4769198440309136</v>
+        <v>0.35323276537337</v>
       </c>
       <c r="AK40">
-        <v>0.5396066413937944</v>
+        <v>0.6262022853018094</v>
       </c>
       <c r="AL40">
         <v>0</v>
       </c>
       <c r="AM40">
         <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>647.6287425149701</v>
+      </c>
+      <c r="AP40">
+        <v>553.9740170564754</v>
       </c>
     </row>
     <row r="41">
@@ -5514,7 +5451,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Industrial Securities Co., Ltd. (SHSE:601377)</t>
+          <t>Zhongtai Securities Co., Ltd. (SHSE:600918)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5522,12 +5459,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D41">
-        <v>0.244</v>
-      </c>
-      <c r="E41">
-        <v>-0.0009700000000000001</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -5535,91 +5466,91 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0.004749370850233759</v>
+        <v>0.01432046010654337</v>
       </c>
       <c r="J41">
-        <v>0.003786404471822198</v>
+        <v>0.01153692935450527</v>
       </c>
       <c r="K41">
-        <v>162.5</v>
+        <v>407.5</v>
       </c>
       <c r="L41">
-        <v>0.09363295880149813</v>
+        <v>0.2830844043070511</v>
       </c>
       <c r="M41">
-        <v>527.6</v>
+        <v>324.3</v>
       </c>
       <c r="N41">
-        <v>0.07748226689968132</v>
+        <v>0.01642283092536044</v>
       </c>
       <c r="O41">
-        <v>3.246769230769231</v>
+        <v>0.7958282208588957</v>
       </c>
       <c r="P41">
-        <v>510.9</v>
+        <v>324.3</v>
       </c>
       <c r="Q41">
-        <v>0.07502973873966487</v>
+        <v>0.01642283092536044</v>
       </c>
       <c r="R41">
-        <v>3.144</v>
+        <v>0.7958282208588957</v>
       </c>
       <c r="S41">
-        <v>16.70000000000005</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>0.03165276724791517</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>2358.6</v>
+        <v>815.2</v>
       </c>
       <c r="V41">
-        <v>0.3463792166595685</v>
+        <v>0.04128242914077652</v>
       </c>
       <c r="W41">
-        <v>0.03359798205350866</v>
+        <v>0.08714713430282292</v>
       </c>
       <c r="X41">
-        <v>0.07537030465868527</v>
+        <v>0.04166126984839477</v>
       </c>
       <c r="Y41">
-        <v>-0.04177232260517661</v>
+        <v>0.04548586445442815</v>
       </c>
       <c r="Z41">
-        <v>0.1039389767839615</v>
+        <v>0.1026467202727437</v>
       </c>
       <c r="AA41">
-        <v>0.0003935550064914157</v>
+        <v>0.001184227960258308</v>
       </c>
       <c r="AB41">
-        <v>0.04764563575511517</v>
+        <v>0.03643862042971058</v>
       </c>
       <c r="AC41">
-        <v>-0.04725208074862376</v>
+        <v>-0.03525439246945228</v>
       </c>
       <c r="AD41">
-        <v>10556.5</v>
+        <v>11418.9</v>
       </c>
       <c r="AE41">
-        <v>180.2873344470966</v>
+        <v>72.42848838315406</v>
       </c>
       <c r="AF41">
-        <v>10736.7873344471</v>
+        <v>11491.32848838315</v>
       </c>
       <c r="AG41">
-        <v>8378.187334447097</v>
+        <v>10676.12848838315</v>
       </c>
       <c r="AH41">
-        <v>0.6119191777512847</v>
+        <v>0.3678610806197458</v>
       </c>
       <c r="AI41">
-        <v>0.6718517632812387</v>
+        <v>0.6957303530414475</v>
       </c>
       <c r="AJ41">
-        <v>0.5516506549074995</v>
+        <v>0.3509226076049518</v>
       </c>
       <c r="AK41">
-        <v>0.6150352821629974</v>
+        <v>0.6799333268488137</v>
       </c>
       <c r="AL41">
         <v>0</v>
@@ -5628,10 +5559,10 @@
         <v>0</v>
       </c>
       <c r="AN41">
-        <v>238.2957110609481</v>
+        <v>325.3247863247863</v>
       </c>
       <c r="AP41">
-        <v>189.1238675947426</v>
+        <v>304.1632047972408</v>
       </c>
     </row>
     <row r="42">
@@ -5642,7 +5573,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Southwest Securities Co., Ltd. (SHSE:600369)</t>
+          <t>CSC Financial Co., Ltd. (SEHK:6066)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5650,11 +5581,8 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D42">
-        <v>-0.0208</v>
-      </c>
-      <c r="E42">
-        <v>-0.09939999999999999</v>
+      <c r="F42">
+        <v>0.00423</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5669,85 +5597,85 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>84.2</v>
+        <v>1350.8</v>
       </c>
       <c r="L42">
-        <v>0.2032343712285783</v>
+        <v>0.4454704349833459</v>
       </c>
       <c r="M42">
-        <v>134.8</v>
+        <v>1123.6</v>
       </c>
       <c r="N42">
-        <v>0.03203650450364808</v>
+        <v>0.02585163608921529</v>
       </c>
       <c r="O42">
-        <v>1.600950118764846</v>
+        <v>0.8318033757773171</v>
       </c>
       <c r="P42">
-        <v>134.8</v>
+        <v>387.3</v>
       </c>
       <c r="Q42">
-        <v>0.03203650450364808</v>
+        <v>0.0089109457612612</v>
       </c>
       <c r="R42">
-        <v>1.600950118764846</v>
+        <v>0.2867189813443885</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>736.3</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>0.6553043787824849</v>
       </c>
       <c r="U42">
-        <v>603.6</v>
+        <v>4000.5</v>
       </c>
       <c r="V42">
-        <v>0.1434512916795399</v>
+        <v>0.09204296028382501</v>
       </c>
       <c r="W42">
-        <v>0.03041138440423304</v>
+        <v>0.1745490256887373</v>
       </c>
       <c r="X42">
-        <v>0.06719799881186382</v>
+        <v>0.0431908595779795</v>
       </c>
       <c r="Y42">
-        <v>-0.03678661440763079</v>
+        <v>0.1313581661107578</v>
       </c>
       <c r="Z42">
-        <v>0.06003216785243361</v>
+        <v>0.1365513390344182</v>
       </c>
       <c r="AA42">
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>0.04730771019648596</v>
+        <v>0.03548024563817805</v>
       </c>
       <c r="AC42">
-        <v>-0.04730771019648596</v>
+        <v>-0.03548024563817805</v>
       </c>
       <c r="AD42">
-        <v>4853.1</v>
+        <v>29227.3</v>
       </c>
       <c r="AE42">
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>4853.1</v>
+        <v>29227.3</v>
       </c>
       <c r="AG42">
-        <v>4249.5</v>
+        <v>25226.8</v>
       </c>
       <c r="AH42">
-        <v>0.5356149567367121</v>
+        <v>0.402077569757892</v>
       </c>
       <c r="AI42">
-        <v>0.6351476920258085</v>
+        <v>0.7617902029369296</v>
       </c>
       <c r="AJ42">
-        <v>0.5024712670860332</v>
+        <v>0.3672547175579631</v>
       </c>
       <c r="AK42">
-        <v>0.6038537507282622</v>
+        <v>0.7340606004172717</v>
       </c>
       <c r="AL42">
         <v>0</v>
@@ -5764,7 +5692,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>China International Capital Corporation Limited (SEHK:3908)</t>
+          <t>DONGXING SECURITIES Company Limited (SHSE:601198)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5773,13 +5701,10 @@
         </is>
       </c>
       <c r="D43">
-        <v>0.254</v>
+        <v>0.011</v>
       </c>
       <c r="E43">
-        <v>0.362</v>
-      </c>
-      <c r="F43">
-        <v>0.11</v>
+        <v>-0.07919999999999999</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5788,34 +5713,34 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0.01386563745419318</v>
+        <v>0.01579248336726647</v>
       </c>
       <c r="J43">
-        <v>0.01116202000830124</v>
+        <v>0.01219215540111839</v>
       </c>
       <c r="K43">
-        <v>547.1</v>
+        <v>204.1</v>
       </c>
       <c r="L43">
-        <v>0.2682388703667386</v>
+        <v>0.26582443344621</v>
       </c>
       <c r="M43">
-        <v>204.2</v>
+        <v>262.9</v>
       </c>
       <c r="N43">
-        <v>0.02423969041570713</v>
+        <v>0.04672199612575308</v>
       </c>
       <c r="O43">
-        <v>0.3732407238164869</v>
+        <v>1.288094071533562</v>
       </c>
       <c r="P43">
-        <v>204.2</v>
+        <v>262.9</v>
       </c>
       <c r="Q43">
-        <v>0.02423969041570713</v>
+        <v>0.04672199612575308</v>
       </c>
       <c r="R43">
-        <v>0.3732407238164869</v>
+        <v>1.288094071533562</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5824,55 +5749,55 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>3050.7</v>
+        <v>392.5</v>
       </c>
       <c r="V43">
-        <v>0.3621352769402436</v>
+        <v>0.06975421635358724</v>
       </c>
       <c r="W43">
-        <v>0.09085926860862924</v>
+        <v>0.07220433721300457</v>
       </c>
       <c r="X43">
-        <v>0.09385605723616373</v>
+        <v>0.0524434751319377</v>
       </c>
       <c r="Y43">
-        <v>-0.002996788627534497</v>
+        <v>0.01976086208106687</v>
       </c>
       <c r="Z43">
-        <v>0.09850666375748358</v>
+        <v>0.0822410292169737</v>
       </c>
       <c r="AA43">
-        <v>0.001099533351812035</v>
+        <v>0.001002695408561261</v>
       </c>
       <c r="AB43">
-        <v>0.04843401978112624</v>
+        <v>0.037064536232912</v>
       </c>
       <c r="AC43">
-        <v>-0.0473344864293142</v>
+        <v>-0.03606184082435075</v>
       </c>
       <c r="AD43">
-        <v>21158.1</v>
+        <v>6816.3</v>
       </c>
       <c r="AE43">
-        <v>193.098229242138</v>
+        <v>48.87265635306402</v>
       </c>
       <c r="AF43">
-        <v>21351.19822924214</v>
+        <v>6865.172656353064</v>
       </c>
       <c r="AG43">
-        <v>18300.49822924214</v>
+        <v>6472.672656353064</v>
       </c>
       <c r="AH43">
-        <v>0.7170751526094897</v>
+        <v>0.5495623380689881</v>
       </c>
       <c r="AI43">
-        <v>0.7715228171981106</v>
+        <v>0.6896709476780848</v>
       </c>
       <c r="AJ43">
-        <v>0.6847784799013278</v>
+        <v>0.5349505176907624</v>
       </c>
       <c r="AK43">
-        <v>0.7432157843879128</v>
+        <v>0.6769322895428256</v>
       </c>
       <c r="AL43">
         <v>0</v>
@@ -5881,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="AN43">
-        <v>316.2645739910313</v>
+        <v>311.2465753424658</v>
       </c>
       <c r="AP43">
-        <v>273.5500482696881</v>
+        <v>295.5558290572175</v>
       </c>
     </row>
     <row r="44">
@@ -5895,7 +5820,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GF Securities Co., Ltd. (SZSE:000776)</t>
+          <t>Tianfeng Securities Co., Ltd. (SHSE:601162)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5904,46 +5829,46 @@
         </is>
       </c>
       <c r="D44">
-        <v>0.155</v>
+        <v>0.113</v>
       </c>
       <c r="E44">
-        <v>0.103</v>
+        <v>0.00604</v>
       </c>
       <c r="G44">
-        <v>0.03748136333691619</v>
+        <v>0.003438517051082496</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>0.007641103892197965</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.005844583535742544</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>811.7</v>
+        <v>120.2</v>
       </c>
       <c r="L44">
-        <v>0.2814396172116085</v>
+        <v>0.1700863166831753</v>
       </c>
       <c r="M44">
-        <v>648.1</v>
+        <v>167.1</v>
       </c>
       <c r="N44">
-        <v>0.0432941207906638</v>
+        <v>0.02682915081161794</v>
       </c>
       <c r="O44">
-        <v>0.7984477023530862</v>
+        <v>1.39018302828619</v>
       </c>
       <c r="P44">
-        <v>648.1</v>
+        <v>167.1</v>
       </c>
       <c r="Q44">
-        <v>0.0432941207906638</v>
+        <v>0.02682915081161794</v>
       </c>
       <c r="R44">
-        <v>0.7984477023530862</v>
+        <v>1.39018302828619</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5952,67 +5877,61 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>2879.3</v>
+        <v>623.3</v>
       </c>
       <c r="V44">
-        <v>0.1923418638984081</v>
+        <v>0.1000754620040781</v>
       </c>
       <c r="W44">
-        <v>0.06491366969762402</v>
+        <v>0.07126341376652635</v>
       </c>
       <c r="X44">
-        <v>0.07931936953801937</v>
+        <v>0.0472062487480068</v>
       </c>
       <c r="Y44">
-        <v>-0.01440569984039534</v>
+        <v>0.02405716501851955</v>
       </c>
       <c r="Z44">
-        <v>0.06770207108967558</v>
+        <v>0.1296231080198681</v>
       </c>
       <c r="AA44">
-        <v>0.0003956904100263892</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>0.04777206055625016</v>
+        <v>0.03615584405973337</v>
       </c>
       <c r="AC44">
-        <v>-0.04737637014622377</v>
+        <v>-0.03615584405973337</v>
       </c>
       <c r="AD44">
-        <v>26579.4</v>
+        <v>5668.4</v>
       </c>
       <c r="AE44">
-        <v>87.31146132255924</v>
+        <v>0</v>
       </c>
       <c r="AF44">
-        <v>26666.71146132256</v>
+        <v>5668.4</v>
       </c>
       <c r="AG44">
-        <v>23787.41146132256</v>
+        <v>5045.099999999999</v>
       </c>
       <c r="AH44">
-        <v>0.640466133496979</v>
+        <v>0.4764682643085897</v>
       </c>
       <c r="AI44">
-        <v>0.6673499606499996</v>
+        <v>0.6252578399902929</v>
       </c>
       <c r="AJ44">
-        <v>0.61375604539211</v>
+        <v>0.4475224865612858</v>
       </c>
       <c r="AK44">
-        <v>0.6415192128507686</v>
+        <v>0.5975907324931299</v>
       </c>
       <c r="AL44">
         <v>0</v>
       </c>
       <c r="AM44">
         <v>0</v>
-      </c>
-      <c r="AN44">
-        <v>672.8962025316456</v>
-      </c>
-      <c r="AP44">
-        <v>602.2129483879129</v>
       </c>
     </row>
     <row r="45">
@@ -6023,7 +5942,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Changjiang Securities Company Limited (SZSE:000783)</t>
+          <t>Caitong Securities Co.,Ltd. (SHSE:601108)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6032,10 +5951,10 @@
         </is>
       </c>
       <c r="D45">
-        <v>0.0834</v>
+        <v>-0.0759</v>
       </c>
       <c r="E45">
-        <v>-0.0414</v>
+        <v>0.0308</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -6044,34 +5963,34 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>0.0004038741821166218</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>0.0003370405692390964</v>
       </c>
       <c r="K45">
-        <v>160.7</v>
+        <v>352.2</v>
       </c>
       <c r="L45">
-        <v>0.197808961102905</v>
+        <v>0.3827844799478317</v>
       </c>
       <c r="M45">
-        <v>176.8</v>
+        <v>232.5</v>
       </c>
       <c r="N45">
-        <v>0.03118055800500864</v>
+        <v>0.0334335140420759</v>
       </c>
       <c r="O45">
-        <v>1.100186683260735</v>
+        <v>0.6601362862010222</v>
       </c>
       <c r="P45">
-        <v>176.8</v>
+        <v>232.5</v>
       </c>
       <c r="Q45">
-        <v>0.03118055800500864</v>
+        <v>0.0334335140420759</v>
       </c>
       <c r="R45">
-        <v>1.100186683260735</v>
+        <v>0.6601362862010222</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -6080,61 +5999,67 @@
         <v>0</v>
       </c>
       <c r="U45">
-        <v>1239.4</v>
+        <v>461.5</v>
       </c>
       <c r="V45">
-        <v>0.218581355155021</v>
+        <v>0.0663637278727657</v>
       </c>
       <c r="W45">
-        <v>0.04071859321948006</v>
+        <v>0.1230264077127288</v>
       </c>
       <c r="X45">
-        <v>0.06875765292225772</v>
+        <v>0.04773371288336402</v>
       </c>
       <c r="Y45">
-        <v>-0.02803905970277766</v>
+        <v>0.07529269482936476</v>
       </c>
       <c r="Z45">
-        <v>0.08442449183189925</v>
+        <v>0.1484596889333924</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>5.003693806716976e-05</v>
       </c>
       <c r="AB45">
-        <v>0.04738209129350775</v>
+        <v>0.03623230007650469</v>
       </c>
       <c r="AC45">
-        <v>-0.04738209129350775</v>
+        <v>-0.03618226313843752</v>
       </c>
       <c r="AD45">
-        <v>6998.1</v>
+        <v>6451.4</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>94.64197682517249</v>
       </c>
       <c r="AF45">
-        <v>6998.1</v>
+        <v>6546.041976825172</v>
       </c>
       <c r="AG45">
-        <v>5758.700000000001</v>
+        <v>6084.541976825172</v>
       </c>
       <c r="AH45">
-        <v>0.5524103470868231</v>
+        <v>0.4848868988239044</v>
       </c>
       <c r="AI45">
-        <v>0.6410629877981752</v>
+        <v>0.6662202828339067</v>
       </c>
       <c r="AJ45">
-        <v>0.503871763686794</v>
+        <v>0.4666545785703612</v>
       </c>
       <c r="AK45">
-        <v>0.5950914539630051</v>
+        <v>0.6497703678440041</v>
       </c>
       <c r="AL45">
         <v>0</v>
       </c>
       <c r="AM45">
         <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>334.2694300518135</v>
+      </c>
+      <c r="AP45">
+        <v>315.2612423225478</v>
       </c>
     </row>
     <row r="46">
@@ -6145,7 +6070,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Orient Securities Company Limited (SHSE:600958)</t>
+          <t>China International Capital Corporation Limited (SEHK:3908)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6154,13 +6079,13 @@
         </is>
       </c>
       <c r="D46">
-        <v>0.306</v>
+        <v>0.242</v>
       </c>
       <c r="E46">
-        <v>0.0455</v>
+        <v>0.256</v>
       </c>
       <c r="F46">
-        <v>0.198</v>
+        <v>0.243</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -6169,34 +6094,34 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>0.006544949961191632</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>0.005744558336373896</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>289.4</v>
+        <v>882.2</v>
       </c>
       <c r="L46">
-        <v>0.1253302152353731</v>
+        <v>0.2512316673786131</v>
       </c>
       <c r="M46">
-        <v>571.4</v>
+        <v>76.5</v>
       </c>
       <c r="N46">
-        <v>0.05792135913472747</v>
+        <v>0.001968473545259453</v>
       </c>
       <c r="O46">
-        <v>1.974429854872149</v>
+        <v>0.08671503060530492</v>
       </c>
       <c r="P46">
-        <v>571.4</v>
+        <v>76.5</v>
       </c>
       <c r="Q46">
-        <v>0.05792135913472747</v>
+        <v>0.001968473545259453</v>
       </c>
       <c r="R46">
-        <v>1.974429854872149</v>
+        <v>0.08671503060530492</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -6205,67 +6130,61 @@
         <v>0</v>
       </c>
       <c r="U46">
-        <v>2585.5</v>
+        <v>5867.4</v>
       </c>
       <c r="V46">
-        <v>0.2620855338516589</v>
+        <v>0.1509780611693505</v>
       </c>
       <c r="W46">
-        <v>0.03864489163673267</v>
+        <v>0.1403391556107028</v>
       </c>
       <c r="X46">
-        <v>0.08641907384702853</v>
+        <v>0.04641669515340112</v>
       </c>
       <c r="Y46">
-        <v>-0.04777418221029586</v>
+        <v>0.0939224604573017</v>
       </c>
       <c r="Z46">
-        <v>0.09125270528169398</v>
+        <v>0.1452701864124904</v>
       </c>
       <c r="AA46">
-        <v>0.0005242064888426253</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>0.04795803573100611</v>
+        <v>0.03624306164200881</v>
       </c>
       <c r="AC46">
-        <v>-0.04743382924216349</v>
+        <v>-0.03624306164200881</v>
       </c>
       <c r="AD46">
-        <v>21084.2</v>
+        <v>33553</v>
       </c>
       <c r="AE46">
-        <v>117.935280223062</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>21202.13528022306</v>
+        <v>33553</v>
       </c>
       <c r="AG46">
-        <v>18616.63528022306</v>
+        <v>27685.6</v>
       </c>
       <c r="AH46">
-        <v>0.6824596746051628</v>
+        <v>0.4633393909599589</v>
       </c>
       <c r="AI46">
-        <v>0.7397624336195345</v>
+        <v>0.8002031928949264</v>
       </c>
       <c r="AJ46">
-        <v>0.6536341657929089</v>
+        <v>0.4160232733567549</v>
       </c>
       <c r="AK46">
-        <v>0.7139584774655121</v>
+        <v>0.7676967102198363</v>
       </c>
       <c r="AL46">
         <v>0</v>
       </c>
       <c r="AM46">
         <v>0</v>
-      </c>
-      <c r="AN46">
-        <v>544.8113695090439</v>
-      </c>
-      <c r="AP46">
-        <v>481.0500072409059</v>
       </c>
     </row>
     <row r="47">
@@ -6276,7 +6195,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Northeast Securities Co., Ltd. (SZSE:000686)</t>
+          <t>CITIC Securities Company Limited (SHSE:600030)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6285,10 +6204,13 @@
         </is>
       </c>
       <c r="D47">
-        <v>0.31</v>
+        <v>-0.007850000000000001</v>
       </c>
       <c r="E47">
-        <v>0.07099999999999999</v>
+        <v>-0.0727</v>
+      </c>
+      <c r="F47">
+        <v>0.156</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -6303,28 +6225,28 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>125.7</v>
+        <v>2115.7</v>
       </c>
       <c r="L47">
-        <v>0.1047238190452387</v>
+        <v>0.2758193622402419</v>
       </c>
       <c r="M47">
-        <v>251.4</v>
+        <v>2087.2</v>
       </c>
       <c r="N47">
-        <v>0.08042226487523993</v>
+        <v>0.03931496424884911</v>
       </c>
       <c r="O47">
-        <v>2</v>
+        <v>0.9865292810890013</v>
       </c>
       <c r="P47">
-        <v>251.4</v>
+        <v>2087.2</v>
       </c>
       <c r="Q47">
-        <v>0.08042226487523993</v>
+        <v>0.03931496424884911</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>0.9865292810890013</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -6333,55 +6255,55 @@
         <v>0</v>
       </c>
       <c r="U47">
-        <v>664.7</v>
+        <v>9501</v>
       </c>
       <c r="V47">
-        <v>0.2126359564939219</v>
+        <v>0.1789629529169775</v>
       </c>
       <c r="W47">
-        <v>0.05693966298242436</v>
+        <v>0.09447071483748821</v>
       </c>
       <c r="X47">
-        <v>0.07397347164873225</v>
+        <v>0.05343908539331595</v>
       </c>
       <c r="Y47">
-        <v>-0.01703380866630789</v>
+        <v>0.04103162944417227</v>
       </c>
       <c r="Z47">
-        <v>0.1794787445609103</v>
+        <v>0.1276813907693742</v>
       </c>
       <c r="AA47">
         <v>0</v>
       </c>
       <c r="AB47">
-        <v>0.04759597235264082</v>
+        <v>0.03629407549639781</v>
       </c>
       <c r="AC47">
-        <v>-0.04759597235264082</v>
+        <v>-0.03629407549639781</v>
       </c>
       <c r="AD47">
-        <v>4702.8</v>
+        <v>67900.39999999999</v>
       </c>
       <c r="AE47">
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>4702.8</v>
+        <v>67900.39999999999</v>
       </c>
       <c r="AG47">
-        <v>4038.1</v>
+        <v>58399.39999999999</v>
       </c>
       <c r="AH47">
-        <v>0.6007050889025138</v>
+        <v>0.5612085666867235</v>
       </c>
       <c r="AI47">
-        <v>0.6698286544460113</v>
+        <v>0.7150082399212336</v>
       </c>
       <c r="AJ47">
-        <v>0.5636576820535727</v>
+        <v>0.5238149909497474</v>
       </c>
       <c r="AK47">
-        <v>0.6353009659859664</v>
+        <v>0.6833256302398099</v>
       </c>
       <c r="AL47">
         <v>0</v>
@@ -6398,7 +6320,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Haitong Securities Co., Ltd. (SHSE:600837)</t>
+          <t>China Industrial Securities Co.,Ltd. (SHSE:601377)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6407,49 +6329,46 @@
         </is>
       </c>
       <c r="D48">
-        <v>0.186</v>
+        <v>0.0766</v>
       </c>
       <c r="E48">
-        <v>0.112</v>
-      </c>
-      <c r="F48">
-        <v>-0.527</v>
+        <v>-0.0634</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.001905641370047011</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0.00896639370482496</v>
+        <v>0.004936921609559338</v>
       </c>
       <c r="J48">
-        <v>0.006846088193292853</v>
+        <v>0.003611847763422809</v>
       </c>
       <c r="K48">
-        <v>1260.4</v>
+        <v>447.4</v>
       </c>
       <c r="L48">
-        <v>0.2868065352933145</v>
+        <v>0.1877938213566152</v>
       </c>
       <c r="M48">
-        <v>1840</v>
+        <v>434.1</v>
       </c>
       <c r="N48">
-        <v>0.08364092586868375</v>
+        <v>0.0487566547611025</v>
       </c>
       <c r="O48">
-        <v>1.45985401459854</v>
+        <v>0.9702726866338848</v>
       </c>
       <c r="P48">
-        <v>1840</v>
+        <v>434.1</v>
       </c>
       <c r="Q48">
-        <v>0.08364092586868375</v>
+        <v>0.0487566547611025</v>
       </c>
       <c r="R48">
-        <v>1.45985401459854</v>
+        <v>0.9702726866338848</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -6458,55 +6377,55 @@
         <v>0</v>
       </c>
       <c r="U48">
-        <v>6248.5</v>
+        <v>2445.6</v>
       </c>
       <c r="V48">
-        <v>0.28403822026656</v>
+        <v>0.2746815823168677</v>
       </c>
       <c r="W48">
-        <v>0.07353001230945146</v>
+        <v>0.09294692012049444</v>
       </c>
       <c r="X48">
-        <v>0.08823846857124375</v>
+        <v>0.05478375748441296</v>
       </c>
       <c r="Y48">
-        <v>-0.01470845626179229</v>
+        <v>0.03816316263608148</v>
       </c>
       <c r="Z48">
-        <v>0.08040062154582943</v>
+        <v>0.1806782373021839</v>
       </c>
       <c r="AA48">
-        <v>0.0005504297458983099</v>
+        <v>0.0006525822872990683</v>
       </c>
       <c r="AB48">
-        <v>0.04831016414661854</v>
+        <v>0.03705989692769732</v>
       </c>
       <c r="AC48">
-        <v>-0.04775973440072023</v>
+        <v>-0.03640731464039825</v>
       </c>
       <c r="AD48">
-        <v>49220.6</v>
+        <v>11919.7</v>
       </c>
       <c r="AE48">
-        <v>132.9814311238812</v>
+        <v>176.1913897869292</v>
       </c>
       <c r="AF48">
-        <v>49353.58143112388</v>
+        <v>12095.89138978693</v>
       </c>
       <c r="AG48">
-        <v>43105.08143112388</v>
+        <v>9650.291389786929</v>
       </c>
       <c r="AH48">
-        <v>0.6916879358646867</v>
+        <v>0.5760142647322759</v>
       </c>
       <c r="AI48">
-        <v>0.7169131943586045</v>
+        <v>0.6727754549742171</v>
       </c>
       <c r="AJ48">
-        <v>0.6620969515731031</v>
+        <v>0.5201278380160528</v>
       </c>
       <c r="AK48">
-        <v>0.6886534855750559</v>
+        <v>0.6212570727101231</v>
       </c>
       <c r="AL48">
         <v>0</v>
@@ -6515,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="AN48">
-        <v>745.7666666666667</v>
+        <v>253.6106382978724</v>
       </c>
       <c r="AP48">
-        <v>653.1072944109678</v>
+        <v>205.3253487188708</v>
       </c>
     </row>
     <row r="49">
@@ -6529,7 +6448,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>China Great Wall Securities Co.,Ltd. (SZSE:002939)</t>
+          <t>Soochow Securities Co., Ltd. (SHSE:601555)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6537,6 +6456,12 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D49">
+        <v>0.012</v>
+      </c>
+      <c r="E49">
+        <v>-0.08699999999999999</v>
+      </c>
       <c r="G49">
         <v>0</v>
       </c>
@@ -6544,34 +6469,34 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>0.02075630106441193</v>
+        <v>0.006062247381816167</v>
       </c>
       <c r="J49">
-        <v>0.01793534455351188</v>
+        <v>0.004628102105303767</v>
       </c>
       <c r="K49">
-        <v>119</v>
+        <v>236.1</v>
       </c>
       <c r="L49">
-        <v>0.2546543976032527</v>
+        <v>0.2448408171730789</v>
       </c>
       <c r="M49">
-        <v>142.2</v>
+        <v>300.5</v>
       </c>
       <c r="N49">
-        <v>0.02301902063941724</v>
+        <v>0.05127373863190404</v>
       </c>
       <c r="O49">
-        <v>1.194957983193277</v>
+        <v>1.272765777213045</v>
       </c>
       <c r="P49">
-        <v>142.2</v>
+        <v>300.5</v>
       </c>
       <c r="Q49">
-        <v>0.02301902063941724</v>
+        <v>0.05127373863190404</v>
       </c>
       <c r="R49">
-        <v>1.194957983193277</v>
+        <v>1.272765777213045</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -6580,55 +6505,55 @@
         <v>0</v>
       </c>
       <c r="U49">
-        <v>178.3</v>
+        <v>550.1</v>
       </c>
       <c r="V49">
-        <v>0.02886280857952246</v>
+        <v>0.0938625078915488</v>
       </c>
       <c r="W49">
-        <v>0.05577689243027888</v>
+        <v>0.08145030530927658</v>
       </c>
       <c r="X49">
-        <v>0.05691570735160284</v>
+        <v>0.05324105488155288</v>
       </c>
       <c r="Y49">
-        <v>-0.001138814921323957</v>
+        <v>0.02820925042772369</v>
       </c>
       <c r="Z49">
-        <v>0.08298330905850695</v>
+        <v>0.1054355581068957</v>
       </c>
       <c r="AA49">
-        <v>0.001488334240154886</v>
+        <v>0.0004879665284484015</v>
       </c>
       <c r="AB49">
-        <v>0.05022207012962011</v>
+        <v>0.03690483544157191</v>
       </c>
       <c r="AC49">
-        <v>-0.04873373588946522</v>
+        <v>-0.03641686891312351</v>
       </c>
       <c r="AD49">
-        <v>3778.7</v>
+        <v>7402.8</v>
       </c>
       <c r="AE49">
-        <v>55.50290256300153</v>
+        <v>24.27087424857335</v>
       </c>
       <c r="AF49">
-        <v>3834.202902563001</v>
+        <v>7427.070874248573</v>
       </c>
       <c r="AG49">
-        <v>3655.902902563001</v>
+        <v>6876.970874248573</v>
       </c>
       <c r="AH49">
-        <v>0.3829721017372023</v>
+        <v>0.5589403177204149</v>
       </c>
       <c r="AI49">
-        <v>0.6158369924602204</v>
+        <v>0.6437626440425867</v>
       </c>
       <c r="AJ49">
-        <v>0.3717841055419501</v>
+        <v>0.5398923352739134</v>
       </c>
       <c r="AK49">
-        <v>0.6045109955738134</v>
+        <v>0.6259262489711304</v>
       </c>
       <c r="AL49">
         <v>0</v>
@@ -6637,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="AN49">
-        <v>181.6682692307692</v>
+        <v>691.8504672897197</v>
       </c>
       <c r="AP49">
-        <v>175.7645626232212</v>
+        <v>642.7075583409882</v>
       </c>
     </row>
     <row r="50">
@@ -6651,7 +6576,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Tianfeng Securities Co., Ltd. (SHSE:601162)</t>
+          <t>China Merchants Securities Co., Ltd. (SHSE:600999)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6659,6 +6584,15 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D50">
+        <v>0.001</v>
+      </c>
+      <c r="E50">
+        <v>-0.00843</v>
+      </c>
+      <c r="F50">
+        <v>0.231</v>
+      </c>
       <c r="G50">
         <v>0</v>
       </c>
@@ -6672,85 +6606,85 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>32.5</v>
+        <v>1432.8</v>
       </c>
       <c r="L50">
-        <v>0.06197559115179253</v>
+        <v>0.4100744132799084</v>
       </c>
       <c r="M50">
-        <v>155.6</v>
+        <v>840.9</v>
       </c>
       <c r="N50">
-        <v>0.02841801512218286</v>
+        <v>0.02956667885572839</v>
       </c>
       <c r="O50">
-        <v>4.787692307692308</v>
+        <v>0.586892797319933</v>
       </c>
       <c r="P50">
-        <v>155.6</v>
+        <v>743.1</v>
       </c>
       <c r="Q50">
-        <v>0.02841801512218286</v>
+        <v>0.02612795701949312</v>
       </c>
       <c r="R50">
-        <v>4.787692307692308</v>
+        <v>0.5186348408710219</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>97.79999999999995</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>0.1163039600428112</v>
       </c>
       <c r="U50">
-        <v>398.4</v>
+        <v>2358.5</v>
       </c>
       <c r="V50">
-        <v>0.07276180735654016</v>
+        <v>0.08292664060082698</v>
       </c>
       <c r="W50">
-        <v>0.01939835263220723</v>
+        <v>0.1227763496143959</v>
       </c>
       <c r="X50">
-        <v>0.05964655802505862</v>
+        <v>0.05483769213953052</v>
       </c>
       <c r="Y50">
-        <v>-0.04024820539285139</v>
+        <v>0.06793865747486537</v>
       </c>
       <c r="Z50">
-        <v>0.1050937607092827</v>
+        <v>0.09003982729052017</v>
       </c>
       <c r="AA50">
         <v>0</v>
       </c>
       <c r="AB50">
-        <v>0.05090591351071513</v>
+        <v>0.03706510115371101</v>
       </c>
       <c r="AC50">
-        <v>-0.05090591351071513</v>
+        <v>-0.03706510115371101</v>
       </c>
       <c r="AD50">
-        <v>4173.1</v>
+        <v>38729.6</v>
       </c>
       <c r="AE50">
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>4173.1</v>
+        <v>38729.6</v>
       </c>
       <c r="AG50">
-        <v>3774.7</v>
+        <v>36371.1</v>
       </c>
       <c r="AH50">
-        <v>0.4325128258278489</v>
+        <v>0.5765873063134953</v>
       </c>
       <c r="AI50">
-        <v>0.6242483171278983</v>
+        <v>0.711235170969993</v>
       </c>
       <c r="AJ50">
-        <v>0.4080712640944422</v>
+        <v>0.561179351322828</v>
       </c>
       <c r="AK50">
-        <v>0.6004358476760093</v>
+        <v>0.6981620293499439</v>
       </c>
       <c r="AL50">
         <v>0</v>
@@ -6767,7 +6701,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>China Internet Nationwide Financial Services Inc. (NasdaqGM:CIFS)</t>
+          <t>Guotai Junan Securities Co., Ltd. (SHSE:601211)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6775,110 +6709,622 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D51">
+        <v>-0.0109</v>
+      </c>
+      <c r="E51">
+        <v>-0.0567</v>
+      </c>
+      <c r="F51">
+        <v>0.124</v>
+      </c>
       <c r="G51">
-        <v>-1.748218527315915</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>-2.209026128266034</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>-15.23267144958744</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>-15.23267144958744</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>-66.59999999999999</v>
+        <v>1626.2</v>
       </c>
       <c r="L51">
-        <v>-15.81947743467933</v>
+        <v>0.3233194822752848</v>
       </c>
       <c r="M51">
-        <v>-0</v>
+        <v>3030</v>
       </c>
       <c r="N51">
-        <v>-0</v>
+        <v>0.1379002748903169</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.863239453941705</v>
       </c>
       <c r="P51">
-        <v>-0</v>
+        <v>1330.2</v>
       </c>
       <c r="Q51">
-        <v>-0</v>
+        <v>0.06053958602610548</v>
       </c>
       <c r="R51">
-        <v>0</v>
+        <v>0.8179805681957939</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1699.8</v>
+      </c>
+      <c r="T51">
+        <v>0.5609900990099009</v>
       </c>
       <c r="U51">
-        <v>0.208</v>
+        <v>4111.8</v>
       </c>
       <c r="V51">
-        <v>0.008188976377952756</v>
+        <v>0.1871347690739291</v>
       </c>
       <c r="W51">
-        <v>-0.8649350649350649</v>
+        <v>0.08596500502193795</v>
       </c>
       <c r="X51">
-        <v>0.04532528513263368</v>
+        <v>0.06751823864936338</v>
       </c>
       <c r="Y51">
-        <v>-0.9102603500676986</v>
+        <v>0.01844676637257457</v>
       </c>
       <c r="Z51">
-        <v>0.06990019081314706</v>
+        <v>0.1094943584183979</v>
       </c>
       <c r="AA51">
-        <v>-1.06476664092014</v>
+        <v>0</v>
       </c>
       <c r="AB51">
-        <v>0.04609919811201882</v>
+        <v>0.03722883568785886</v>
       </c>
       <c r="AC51">
-        <v>-1.110865839032159</v>
+        <v>-0.03722883568785886</v>
       </c>
       <c r="AD51">
-        <v>0.405</v>
+        <v>46411.1</v>
       </c>
       <c r="AE51">
-        <v>0.1077340138157191</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>0.5127340138157191</v>
+        <v>46411.1</v>
       </c>
       <c r="AG51">
-        <v>0.3047340138157192</v>
+        <v>42299.3</v>
       </c>
       <c r="AH51">
-        <v>0.01978695160234147</v>
+        <v>0.6786885725357725</v>
       </c>
       <c r="AI51">
-        <v>0.05125938699434913</v>
+        <v>0.6861000402100382</v>
       </c>
       <c r="AJ51">
-        <v>0.01185517086665559</v>
+        <v>0.6581325840144262</v>
       </c>
       <c r="AK51">
-        <v>0.03111202543998481</v>
+        <v>0.6657847103080289</v>
       </c>
       <c r="AL51">
         <v>0</v>
       </c>
       <c r="AM51">
-        <v>-5.22</v>
-      </c>
-      <c r="AN51">
-        <v>-0.006327334083239596</v>
-      </c>
-      <c r="AP51">
-        <v>-0.004760873856638532</v>
-      </c>
-      <c r="AQ51">
-        <v>12.29885057471265</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Huatai Securities Co., Ltd. (SHSE:601688)</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>0.0518</v>
+      </c>
+      <c r="E52">
+        <v>0.017</v>
+      </c>
+      <c r="F52">
+        <v>0.148</v>
+      </c>
+      <c r="G52">
+        <v>0.006116670629174142</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>1678.7</v>
+      </c>
+      <c r="L52">
+        <v>0.3628287980634146</v>
+      </c>
+      <c r="M52">
+        <v>944.7</v>
+      </c>
+      <c r="N52">
+        <v>0.04150921841221857</v>
+      </c>
+      <c r="O52">
+        <v>0.5627568952165366</v>
+      </c>
+      <c r="P52">
+        <v>944.7</v>
+      </c>
+      <c r="Q52">
+        <v>0.04150921841221857</v>
+      </c>
+      <c r="R52">
+        <v>0.5627568952165366</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>7002.6</v>
+      </c>
+      <c r="V52">
+        <v>0.3076875757948574</v>
+      </c>
+      <c r="W52">
+        <v>0.1000393316011537</v>
+      </c>
+      <c r="X52">
+        <v>0.06553727155142085</v>
+      </c>
+      <c r="Y52">
+        <v>0.03450206004973287</v>
+      </c>
+      <c r="Z52">
+        <v>0.1138423229571888</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0.03817493056783365</v>
+      </c>
+      <c r="AC52">
+        <v>-0.03817493056783365</v>
+      </c>
+      <c r="AD52">
+        <v>45403.9</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>45403.9</v>
+      </c>
+      <c r="AG52">
+        <v>38401.3</v>
+      </c>
+      <c r="AH52">
+        <v>0.6661106440912699</v>
+      </c>
+      <c r="AI52">
+        <v>0.7028521892584308</v>
+      </c>
+      <c r="AJ52">
+        <v>0.6278815763872198</v>
+      </c>
+      <c r="AK52">
+        <v>0.6667251188866068</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Hengtai Securities Co., Ltd (SEHK:1476)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>-0.0617</v>
+      </c>
+      <c r="E53">
+        <v>-0.293</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0.00231996205766745</v>
+      </c>
+      <c r="J53">
+        <v>0.002139577342610928</v>
+      </c>
+      <c r="K53">
+        <v>40.9</v>
+      </c>
+      <c r="L53">
+        <v>0.101363073110285</v>
+      </c>
+      <c r="M53">
+        <v>226.7</v>
+      </c>
+      <c r="N53">
+        <v>0.2527595049615342</v>
+      </c>
+      <c r="O53">
+        <v>5.54278728606357</v>
+      </c>
+      <c r="P53">
+        <v>14.4</v>
+      </c>
+      <c r="Q53">
+        <v>0.01605530159438065</v>
+      </c>
+      <c r="R53">
+        <v>0.352078239608802</v>
+      </c>
+      <c r="S53">
+        <v>212.3</v>
+      </c>
+      <c r="T53">
+        <v>0.9364799294221438</v>
+      </c>
+      <c r="U53">
+        <v>281.6</v>
+      </c>
+      <c r="V53">
+        <v>0.3139703422901104</v>
+      </c>
+      <c r="W53">
+        <v>0.02702702702702703</v>
+      </c>
+      <c r="X53">
+        <v>0.05387041780330985</v>
+      </c>
+      <c r="Y53">
+        <v>-0.02684339077628282</v>
+      </c>
+      <c r="Z53">
+        <v>0.1640444305684749</v>
+      </c>
+      <c r="AA53">
+        <v>0.0003509857468258204</v>
+      </c>
+      <c r="AB53">
+        <v>0.03874420531029711</v>
+      </c>
+      <c r="AC53">
+        <v>-0.03839321956347129</v>
+      </c>
+      <c r="AD53">
+        <v>1168.9</v>
+      </c>
+      <c r="AE53">
+        <v>1.119476548655919</v>
+      </c>
+      <c r="AF53">
+        <v>1170.019476548656</v>
+      </c>
+      <c r="AG53">
+        <v>888.419476548656</v>
+      </c>
+      <c r="AH53">
+        <v>0.5660692106411207</v>
+      </c>
+      <c r="AI53">
+        <v>0.441930451093002</v>
+      </c>
+      <c r="AJ53">
+        <v>0.4976249283215858</v>
+      </c>
+      <c r="AK53">
+        <v>0.3755070641054361</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1007.672413793104</v>
+      </c>
+      <c r="AP53">
+        <v>765.878859093669</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Haitong Securities Co., Ltd. (SHSE:600837)</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>-0.0008100000000000001</v>
+      </c>
+      <c r="E54">
+        <v>-0.05110000000000001</v>
+      </c>
+      <c r="F54">
+        <v>-0.527</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>-0.002166157983259249</v>
+      </c>
+      <c r="J54">
+        <v>-0.00163934197838485</v>
+      </c>
+      <c r="K54">
+        <v>1566.8</v>
+      </c>
+      <c r="L54">
+        <v>0.3233115288582571</v>
+      </c>
+      <c r="M54">
+        <v>1486.4</v>
+      </c>
+      <c r="N54">
+        <v>0.06736429927804542</v>
+      </c>
+      <c r="O54">
+        <v>0.9486852182792954</v>
+      </c>
+      <c r="P54">
+        <v>1486.4</v>
+      </c>
+      <c r="Q54">
+        <v>0.06736429927804542</v>
+      </c>
+      <c r="R54">
+        <v>0.9486852182792954</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>5041.5</v>
+      </c>
+      <c r="V54">
+        <v>0.2284829889735374</v>
+      </c>
+      <c r="W54">
+        <v>0.09029038373989361</v>
+      </c>
+      <c r="X54">
+        <v>0.07575516681744994</v>
+      </c>
+      <c r="Y54">
+        <v>0.01453521692244367</v>
+      </c>
+      <c r="Z54">
+        <v>0.08058944211064822</v>
+      </c>
+      <c r="AA54">
+        <v>-0.0001321136554666014</v>
+      </c>
+      <c r="AB54">
+        <v>0.03870933182020228</v>
+      </c>
+      <c r="AC54">
+        <v>-0.03884144547566888</v>
+      </c>
+      <c r="AD54">
+        <v>56973</v>
+      </c>
+      <c r="AE54">
+        <v>390.4870910133632</v>
+      </c>
+      <c r="AF54">
+        <v>57363.48709101336</v>
+      </c>
+      <c r="AG54">
+        <v>52321.98709101336</v>
+      </c>
+      <c r="AH54">
+        <v>0.7222020331959743</v>
+      </c>
+      <c r="AI54">
+        <v>0.6972293155334012</v>
+      </c>
+      <c r="AJ54">
+        <v>0.7033745927837836</v>
+      </c>
+      <c r="AK54">
+        <v>0.6774652454475238</v>
+      </c>
+      <c r="AL54">
+        <v>0</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>842.7958579881657</v>
+      </c>
+      <c r="AP54">
+        <v>773.993891878896</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Orient Securities Company Limited (SHSE:600958)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Brokerage &amp; Investment Banking</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>0.08990000000000001</v>
+      </c>
+      <c r="E55">
+        <v>-0.113</v>
+      </c>
+      <c r="F55">
+        <v>0.285</v>
+      </c>
+      <c r="G55">
+        <v>0.01040602655771195</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>551.4</v>
+      </c>
+      <c r="L55">
+        <v>0.176008682328907</v>
+      </c>
+      <c r="M55">
+        <v>622.8</v>
+      </c>
+      <c r="N55">
+        <v>0.05486209599985905</v>
+      </c>
+      <c r="O55">
+        <v>1.129488574537541</v>
+      </c>
+      <c r="P55">
+        <v>622.8</v>
+      </c>
+      <c r="Q55">
+        <v>0.05486209599985905</v>
+      </c>
+      <c r="R55">
+        <v>1.129488574537541</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>3224.1</v>
+      </c>
+      <c r="V55">
+        <v>0.284009126064781</v>
+      </c>
+      <c r="W55">
+        <v>0.07399256585392036</v>
+      </c>
+      <c r="X55">
+        <v>0.06623684145417028</v>
+      </c>
+      <c r="Y55">
+        <v>0.007755724399750086</v>
+      </c>
+      <c r="Z55">
+        <v>0.1207416857124137</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0.04023326668772825</v>
+      </c>
+      <c r="AC55">
+        <v>-0.04023326668772825</v>
+      </c>
+      <c r="AD55">
+        <v>23117.5</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
+      </c>
+      <c r="AF55">
+        <v>23117.5</v>
+      </c>
+      <c r="AG55">
+        <v>19893.4</v>
+      </c>
+      <c r="AH55">
+        <v>0.6706634251630422</v>
+      </c>
+      <c r="AI55">
+        <v>0.7218331298534633</v>
+      </c>
+      <c r="AJ55">
+        <v>0.6366804819894065</v>
+      </c>
+      <c r="AK55">
+        <v>0.690695090618707</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
